--- a/raw_data/Wetherspoon.xlsx
+++ b/raw_data/Wetherspoon.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andyk/OneDrive/VizWiz/Makeover Monday/Data/2017/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evangelinereynolds/Google Drive/work/ggplot_flipbook/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C5D3F2-7FAC-EC45-9068-3C5A45110233}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,10 +19,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$214</definedName>
     <definedName name="GeocodeAddressColumn_Sheet1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171026" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1195,7 +1201,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1630,30 +1636,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
     <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -1838,7 +1844,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1900,7 +1906,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -1962,7 +1968,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -2027,7 +2033,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
@@ -2089,7 +2095,7 @@
         <v>7.6499999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -2151,7 +2157,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -2213,7 +2219,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -2276,7 +2282,7 @@
         <v>6.48</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -2338,7 +2344,7 @@
         <v>6.7799999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -2403,7 +2409,7 @@
         <v>6.84</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1">
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -2468,7 +2474,7 @@
         <v>6.28</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.75" customHeight="1">
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -2530,7 +2536,7 @@
         <v>6.28</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.75" customHeight="1">
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -2592,7 +2598,7 @@
         <v>5.8800000000000008</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" customHeight="1">
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
@@ -2654,7 +2660,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.75" customHeight="1">
+    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2716,7 +2722,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.75" customHeight="1">
+    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
@@ -2778,7 +2784,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>52</v>
       </c>
@@ -2840,7 +2846,7 @@
         <v>5.6400000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.75" customHeight="1">
+    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -2902,7 +2908,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.75" customHeight="1">
+    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -2964,7 +2970,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" customHeight="1">
+    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>57</v>
       </c>
@@ -3026,7 +3032,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15.75" customHeight="1">
+    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
@@ -3085,7 +3091,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15.75" customHeight="1">
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
@@ -3147,7 +3153,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15.75" customHeight="1">
+    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>62</v>
       </c>
@@ -3209,7 +3215,7 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15.75" customHeight="1">
+    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>64</v>
       </c>
@@ -3272,7 +3278,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1">
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>66</v>
       </c>
@@ -3334,7 +3340,7 @@
         <v>5.6400000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15.75" customHeight="1">
+    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>68</v>
       </c>
@@ -3396,7 +3402,7 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15.75" customHeight="1">
+    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>70</v>
       </c>
@@ -3458,7 +3464,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15.75" customHeight="1">
+    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
@@ -3520,7 +3526,7 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15.75" customHeight="1">
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>74</v>
       </c>
@@ -3582,7 +3588,7 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15.75" customHeight="1">
+    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>75</v>
       </c>
@@ -3644,7 +3650,7 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15.75" customHeight="1">
+    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>76</v>
       </c>
@@ -3706,7 +3712,7 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15.75" customHeight="1">
+    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>77</v>
       </c>
@@ -3768,7 +3774,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15.75" customHeight="1">
+    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>79</v>
       </c>
@@ -3830,7 +3836,7 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15.75" customHeight="1">
+    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>81</v>
       </c>
@@ -3892,7 +3898,7 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15.75" customHeight="1">
+    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>82</v>
       </c>
@@ -3954,7 +3960,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15.75" customHeight="1">
+    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>84</v>
       </c>
@@ -4016,7 +4022,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="15.75" customHeight="1">
+    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>85</v>
       </c>
@@ -4078,7 +4084,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15.75" customHeight="1">
+    <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>87</v>
       </c>
@@ -4143,7 +4149,7 @@
         <v>5.7799999999999994</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="15.75" customHeight="1">
+    <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>90</v>
       </c>
@@ -4205,7 +4211,7 @@
         <v>6.09</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="15.75" customHeight="1">
+    <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>91</v>
       </c>
@@ -4267,7 +4273,7 @@
         <v>5.7799999999999994</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15.75" customHeight="1">
+    <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>92</v>
       </c>
@@ -4329,7 +4335,7 @@
         <v>5.7799999999999994</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15.75" customHeight="1">
+    <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>93</v>
       </c>
@@ -4391,7 +4397,7 @@
         <v>5.7799999999999994</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15.75" customHeight="1">
+    <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>94</v>
       </c>
@@ -4453,7 +4459,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15.75" customHeight="1">
+    <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>96</v>
       </c>
@@ -4515,7 +4521,7 @@
         <v>6.09</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="12.95">
+    <row r="47" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>97</v>
       </c>
@@ -4577,7 +4583,7 @@
         <v>5.7799999999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="12.95">
+    <row r="48" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>98</v>
       </c>
@@ -4639,7 +4645,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="12.95">
+    <row r="49" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>100</v>
       </c>
@@ -4701,7 +4707,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="12.95">
+    <row r="50" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>102</v>
       </c>
@@ -4763,7 +4769,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="12.95">
+    <row r="51" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>104</v>
       </c>
@@ -4825,7 +4831,7 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="12.95">
+    <row r="52" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>106</v>
       </c>
@@ -4887,7 +4893,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="12.95">
+    <row r="53" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>108</v>
       </c>
@@ -4949,7 +4955,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="12.95">
+    <row r="54" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>109</v>
       </c>
@@ -5011,7 +5017,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="12.95">
+    <row r="55" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>111</v>
       </c>
@@ -5073,7 +5079,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="12.95">
+    <row r="56" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>113</v>
       </c>
@@ -5135,7 +5141,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="12.95">
+    <row r="57" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>114</v>
       </c>
@@ -5197,7 +5203,7 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="12.95">
+    <row r="58" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>116</v>
       </c>
@@ -5259,7 +5265,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="12.95">
+    <row r="59" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>118</v>
       </c>
@@ -5321,7 +5327,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="12.95">
+    <row r="60" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>120</v>
       </c>
@@ -5383,7 +5389,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="12.95">
+    <row r="61" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>122</v>
       </c>
@@ -5445,7 +5451,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="12.95">
+    <row r="62" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>123</v>
       </c>
@@ -5507,7 +5513,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="12.95">
+    <row r="63" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>125</v>
       </c>
@@ -5569,7 +5575,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="12.95">
+    <row r="64" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>127</v>
       </c>
@@ -5631,7 +5637,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="12.95">
+    <row r="65" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>128</v>
       </c>
@@ -5693,7 +5699,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="12.95">
+    <row r="66" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>130</v>
       </c>
@@ -5755,7 +5761,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="12.95">
+    <row r="67" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
@@ -5817,7 +5823,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="12.95">
+    <row r="68" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>134</v>
       </c>
@@ -5879,7 +5885,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="12.95">
+    <row r="69" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -5941,7 +5947,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="12.95">
+    <row r="70" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>138</v>
       </c>
@@ -6003,7 +6009,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="12.95">
+    <row r="71" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>140</v>
       </c>
@@ -6065,7 +6071,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="12.95">
+    <row r="72" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>142</v>
       </c>
@@ -6127,7 +6133,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="12.95">
+    <row r="73" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>144</v>
       </c>
@@ -6189,7 +6195,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="12.95">
+    <row r="74" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>19</v>
       </c>
@@ -6251,7 +6257,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="12.95">
+    <row r="75" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>145</v>
       </c>
@@ -6313,7 +6319,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="12.95">
+    <row r="76" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>147</v>
       </c>
@@ -6375,7 +6381,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="12.95">
+    <row r="77" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>148</v>
       </c>
@@ -6437,7 +6443,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="12.95">
+    <row r="78" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>150</v>
       </c>
@@ -6499,7 +6505,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="12.95">
+    <row r="79" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>152</v>
       </c>
@@ -6561,7 +6567,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="12.95">
+    <row r="80" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>154</v>
       </c>
@@ -6623,7 +6629,7 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="12.95">
+    <row r="81" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>155</v>
       </c>
@@ -6685,7 +6691,7 @@
         <v>5.4399999999999995</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="12.95">
+    <row r="82" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>157</v>
       </c>
@@ -6747,7 +6753,7 @@
         <v>5.6400000000000006</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="12.95">
+    <row r="83" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>159</v>
       </c>
@@ -6809,7 +6815,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="12.95">
+    <row r="84" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>161</v>
       </c>
@@ -6871,7 +6877,7 @@
         <v>5.6400000000000006</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="12.95">
+    <row r="85" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>19</v>
       </c>
@@ -6933,7 +6939,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="12.95">
+    <row r="86" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>163</v>
       </c>
@@ -6995,7 +7001,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="12.95">
+    <row r="87" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>164</v>
       </c>
@@ -7057,7 +7063,7 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="12.95">
+    <row r="88" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>166</v>
       </c>
@@ -7119,7 +7125,7 @@
         <v>5.4399999999999995</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="12.95">
+    <row r="89" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>168</v>
       </c>
@@ -7181,7 +7187,7 @@
         <v>5.4399999999999995</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="12.95">
+    <row r="90" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>170</v>
       </c>
@@ -7243,7 +7249,7 @@
         <v>5.4399999999999995</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="12.95">
+    <row r="91" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>172</v>
       </c>
@@ -7305,7 +7311,7 @@
         <v>5.4399999999999995</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="12.95">
+    <row r="92" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>174</v>
       </c>
@@ -7367,7 +7373,7 @@
         <v>5.4399999999999995</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="12.95">
+    <row r="93" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>176</v>
       </c>
@@ -7429,7 +7435,7 @@
         <v>5.4399999999999995</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="12.95">
+    <row r="94" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>178</v>
       </c>
@@ -7491,7 +7497,7 @@
         <v>5.4399999999999995</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="12.95">
+    <row r="95" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>180</v>
       </c>
@@ -7553,7 +7559,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="12.95">
+    <row r="96" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>182</v>
       </c>
@@ -7615,7 +7621,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="12.95">
+    <row r="97" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>184</v>
       </c>
@@ -7677,7 +7683,7 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="12.95">
+    <row r="98" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>186</v>
       </c>
@@ -7739,7 +7745,7 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="12.95">
+    <row r="99" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>188</v>
       </c>
@@ -7801,7 +7807,7 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="12.95">
+    <row r="100" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>190</v>
       </c>
@@ -7863,7 +7869,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="12.95">
+    <row r="101" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>192</v>
       </c>
@@ -7925,7 +7931,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="12.95">
+    <row r="102" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>194</v>
       </c>
@@ -7987,7 +7993,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="12.95">
+    <row r="103" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
         <v>196</v>
       </c>
@@ -8049,7 +8055,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="12.95">
+    <row r="104" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>198</v>
       </c>
@@ -8112,7 +8118,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="12.95">
+    <row r="105" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>200</v>
       </c>
@@ -8174,7 +8180,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="12.95">
+    <row r="106" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>201</v>
       </c>
@@ -8236,7 +8242,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="12.95">
+    <row r="107" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>203</v>
       </c>
@@ -8298,7 +8304,7 @@
         <v>5.7799999999999994</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="12.95">
+    <row r="108" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>205</v>
       </c>
@@ -8360,7 +8366,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="12.95">
+    <row r="109" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>207</v>
       </c>
@@ -8422,7 +8428,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="12.95">
+    <row r="110" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>209</v>
       </c>
@@ -8484,7 +8490,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="12.95">
+    <row r="111" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
         <v>211</v>
       </c>
@@ -8546,7 +8552,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="12.95">
+    <row r="112" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
         <v>213</v>
       </c>
@@ -8608,7 +8614,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="12.95">
+    <row r="113" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
         <v>215</v>
       </c>
@@ -8670,7 +8676,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="12.95">
+    <row r="114" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
         <v>217</v>
       </c>
@@ -8732,7 +8738,7 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="12.95">
+    <row r="115" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
         <v>218</v>
       </c>
@@ -8794,7 +8800,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="12.95">
+    <row r="116" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>220</v>
       </c>
@@ -8856,7 +8862,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="12.95">
+    <row r="117" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>221</v>
       </c>
@@ -8918,7 +8924,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="12.95">
+    <row r="118" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
         <v>223</v>
       </c>
@@ -8980,7 +8986,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="12.95">
+    <row r="119" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>225</v>
       </c>
@@ -9042,7 +9048,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="12.95">
+    <row r="120" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
         <v>227</v>
       </c>
@@ -9107,7 +9113,7 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="12.95">
+    <row r="121" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
         <v>230</v>
       </c>
@@ -9169,7 +9175,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="12.95">
+    <row r="122" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
         <v>232</v>
       </c>
@@ -9232,7 +9238,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="12.95">
+    <row r="123" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
         <v>234</v>
       </c>
@@ -9295,7 +9301,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="12.95">
+    <row r="124" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
         <v>236</v>
       </c>
@@ -9357,7 +9363,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="12.95">
+    <row r="125" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
         <v>238</v>
       </c>
@@ -9419,7 +9425,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="12.95">
+    <row r="126" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
         <v>240</v>
       </c>
@@ -9481,7 +9487,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="12.95">
+    <row r="127" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
         <v>242</v>
       </c>
@@ -9543,7 +9549,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="12.95">
+    <row r="128" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
         <v>244</v>
       </c>
@@ -9605,7 +9611,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="12.95">
+    <row r="129" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
         <v>246</v>
       </c>
@@ -9667,7 +9673,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="12.95">
+    <row r="130" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
         <v>247</v>
       </c>
@@ -9729,7 +9735,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="12.95">
+    <row r="131" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
         <v>249</v>
       </c>
@@ -9791,7 +9797,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="12.95">
+    <row r="132" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
         <v>251</v>
       </c>
@@ -9853,7 +9859,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="12.95">
+    <row r="133" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
         <v>252</v>
       </c>
@@ -9915,7 +9921,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="12.95">
+    <row r="134" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
         <v>253</v>
       </c>
@@ -9977,7 +9983,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="12.95">
+    <row r="135" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
         <v>254</v>
       </c>
@@ -10039,7 +10045,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="12.95">
+    <row r="136" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
         <v>255</v>
       </c>
@@ -10101,7 +10107,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="12.95">
+    <row r="137" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
         <v>256</v>
       </c>
@@ -10163,7 +10169,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="12.95">
+    <row r="138" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
         <v>257</v>
       </c>
@@ -10226,7 +10232,7 @@
         <v>5.2799999999999994</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="12.95">
+    <row r="139" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
         <v>259</v>
       </c>
@@ -10288,7 +10294,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="12.95">
+    <row r="140" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
         <v>261</v>
       </c>
@@ -10350,7 +10356,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="12.95">
+    <row r="141" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
         <v>263</v>
       </c>
@@ -10412,7 +10418,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="12.95">
+    <row r="142" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
         <v>178</v>
       </c>
@@ -10474,7 +10480,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="12.95">
+    <row r="143" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
         <v>178</v>
       </c>
@@ -10536,7 +10542,7 @@
         <v>5.4399999999999995</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="12.95">
+    <row r="144" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
         <v>267</v>
       </c>
@@ -10598,7 +10604,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="12.95">
+    <row r="145" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
         <v>268</v>
       </c>
@@ -10660,7 +10666,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="12.95">
+    <row r="146" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
         <v>269</v>
       </c>
@@ -10722,7 +10728,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="12.95">
+    <row r="147" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
         <v>271</v>
       </c>
@@ -10784,7 +10790,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="12.95">
+    <row r="148" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
         <v>273</v>
       </c>
@@ -10846,7 +10852,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="12.95">
+    <row r="149" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
         <v>275</v>
       </c>
@@ -10908,7 +10914,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="12.95">
+    <row r="150" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
         <v>276</v>
       </c>
@@ -10970,7 +10976,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="12.95">
+    <row r="151" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
         <v>278</v>
       </c>
@@ -11032,7 +11038,7 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="12.95">
+    <row r="152" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
         <v>280</v>
       </c>
@@ -11097,7 +11103,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="12.95">
+    <row r="153" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
         <v>282</v>
       </c>
@@ -11159,7 +11165,7 @@
         <v>5.14</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="12.95">
+    <row r="154" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
         <v>283</v>
       </c>
@@ -11221,7 +11227,7 @@
         <v>5.2799999999999994</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="12.95">
+    <row r="155" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
         <v>285</v>
       </c>
@@ -11283,7 +11289,7 @@
         <v>5.2799999999999994</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="12.95">
+    <row r="156" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
         <v>287</v>
       </c>
@@ -11345,7 +11351,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="12.95">
+    <row r="157" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
         <v>289</v>
       </c>
@@ -11407,7 +11413,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="12.95">
+    <row r="158" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
         <v>291</v>
       </c>
@@ -11469,7 +11475,7 @@
         <v>5.4399999999999995</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="12.95">
+    <row r="159" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
         <v>293</v>
       </c>
@@ -11531,7 +11537,7 @@
         <v>5.4399999999999995</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="12.95">
+    <row r="160" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
         <v>295</v>
       </c>
@@ -11593,7 +11599,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="12.95">
+    <row r="161" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
         <v>296</v>
       </c>
@@ -11655,7 +11661,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="12.95">
+    <row r="162" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="2" t="s">
         <v>298</v>
       </c>
@@ -11717,7 +11723,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="12.95">
+    <row r="163" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
         <v>300</v>
       </c>
@@ -11779,7 +11785,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="12.95">
+    <row r="164" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
         <v>302</v>
       </c>
@@ -11842,7 +11848,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="12.95">
+    <row r="165" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
         <v>304</v>
       </c>
@@ -11904,7 +11910,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="12.95">
+    <row r="166" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
         <v>306</v>
       </c>
@@ -11966,7 +11972,7 @@
         <v>5.4399999999999995</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="12.95">
+    <row r="167" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
         <v>64</v>
       </c>
@@ -12028,7 +12034,7 @@
         <v>5.4399999999999995</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="12.95">
+    <row r="168" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
         <v>308</v>
       </c>
@@ -12090,7 +12096,7 @@
         <v>5.4399999999999995</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="12.95">
+    <row r="169" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
         <v>309</v>
       </c>
@@ -12152,7 +12158,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="12.95">
+    <row r="170" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
         <v>311</v>
       </c>
@@ -12214,7 +12220,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="12.95">
+    <row r="171" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
         <v>312</v>
       </c>
@@ -12276,7 +12282,7 @@
         <v>5.1999999999999993</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="12.95">
+    <row r="172" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
         <v>314</v>
       </c>
@@ -12338,7 +12344,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="12.95">
+    <row r="173" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
         <v>315</v>
       </c>
@@ -12400,7 +12406,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="12.95">
+    <row r="174" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
         <v>317</v>
       </c>
@@ -12462,7 +12468,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="12.95">
+    <row r="175" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
         <v>319</v>
       </c>
@@ -12524,7 +12530,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="12.95">
+    <row r="176" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
         <v>321</v>
       </c>
@@ -12586,7 +12592,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="12.95">
+    <row r="177" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
         <v>323</v>
       </c>
@@ -12648,7 +12654,7 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="12.95">
+    <row r="178" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
         <v>325</v>
       </c>
@@ -12710,7 +12716,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="12.95">
+    <row r="179" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
         <v>326</v>
       </c>
@@ -12772,7 +12778,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="12.95">
+    <row r="180" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
         <v>240</v>
       </c>
@@ -12834,7 +12840,7 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="12.95">
+    <row r="181" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
         <v>329</v>
       </c>
@@ -12896,7 +12902,7 @@
         <v>5.1400000000000006</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="12.95">
+    <row r="182" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
         <v>331</v>
       </c>
@@ -12958,7 +12964,7 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="12.95">
+    <row r="183" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
         <v>333</v>
       </c>
@@ -13020,7 +13026,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="12.95">
+    <row r="184" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="2" t="s">
         <v>335</v>
       </c>
@@ -13082,7 +13088,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="12.95">
+    <row r="185" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="2" t="s">
         <v>337</v>
       </c>
@@ -13144,7 +13150,7 @@
         <v>5.1400000000000006</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="12.95">
+    <row r="186" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="2" t="s">
         <v>339</v>
       </c>
@@ -13206,7 +13212,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="12.95">
+    <row r="187" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
         <v>341</v>
       </c>
@@ -13268,7 +13274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="12.95">
+    <row r="188" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
         <v>343</v>
       </c>
@@ -13330,7 +13336,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="12.95">
+    <row r="189" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="2" t="s">
         <v>344</v>
       </c>
@@ -13392,7 +13398,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="12.95">
+    <row r="190" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="2" t="s">
         <v>155</v>
       </c>
@@ -13454,7 +13460,7 @@
         <v>4.9400000000000004</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="12.95">
+    <row r="191" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="2" t="s">
         <v>335</v>
       </c>
@@ -13516,7 +13522,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="12.95">
+    <row r="192" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
         <v>348</v>
       </c>
@@ -13578,7 +13584,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="12.95">
+    <row r="193" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="2" t="s">
         <v>350</v>
       </c>
@@ -13640,7 +13646,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="12.95">
+    <row r="194" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="2" t="s">
         <v>352</v>
       </c>
@@ -13702,7 +13708,7 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="12.95">
+    <row r="195" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
         <v>263</v>
       </c>
@@ -13764,7 +13770,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="12.95">
+    <row r="196" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="2" t="s">
         <v>355</v>
       </c>
@@ -13823,7 +13829,7 @@
         <v>5.1400000000000006</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="12.95">
+    <row r="197" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="2" t="s">
         <v>356</v>
       </c>
@@ -13885,7 +13891,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="12.95">
+    <row r="198" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
         <v>358</v>
       </c>
@@ -13947,7 +13953,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="12.95">
+    <row r="199" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
         <v>360</v>
       </c>
@@ -14009,7 +14015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="12.95">
+    <row r="200" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="2" t="s">
         <v>362</v>
       </c>
@@ -14071,7 +14077,7 @@
         <v>5.1400000000000006</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="12.95">
+    <row r="201" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
         <v>364</v>
       </c>
@@ -14133,7 +14139,7 @@
         <v>5.1400000000000006</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="12.95">
+    <row r="202" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
         <v>365</v>
       </c>
@@ -14195,7 +14201,7 @@
         <v>5.1400000000000006</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="12.95">
+    <row r="203" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
         <v>366</v>
       </c>
@@ -14257,7 +14263,7 @@
         <v>5.1400000000000006</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="12.95">
+    <row r="204" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="2" t="s">
         <v>367</v>
       </c>
@@ -14319,7 +14325,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="12.95">
+    <row r="205" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
         <v>369</v>
       </c>
@@ -14381,7 +14387,7 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="12.95">
+    <row r="206" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="2" t="s">
         <v>371</v>
       </c>
@@ -14443,7 +14449,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="12.95">
+    <row r="207" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="2" t="s">
         <v>372</v>
       </c>
@@ -14505,7 +14511,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="12.95">
+    <row r="208" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
         <v>374</v>
       </c>
@@ -14567,7 +14573,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="12.95">
+    <row r="209" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
         <v>376</v>
       </c>
@@ -14629,7 +14635,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="12.95">
+    <row r="210" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
         <v>377</v>
       </c>
@@ -14691,7 +14697,7 @@
         <v>4.9399999999999995</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="12.95">
+    <row r="211" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
         <v>378</v>
       </c>
@@ -14753,7 +14759,7 @@
         <v>4.9399999999999995</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="12.95">
+    <row r="212" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
         <v>379</v>
       </c>
@@ -14815,7 +14821,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="12.95">
+    <row r="213" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
         <v>381</v>
       </c>
@@ -14877,7 +14883,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="12.95">
+    <row r="214" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
         <v>383</v>
       </c>
@@ -14939,2351 +14945,2351 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="12.95">
+    <row r="215" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="O215" s="7"/>
       <c r="Q215" s="2"/>
     </row>
-    <row r="216" spans="1:19" ht="12.95">
+    <row r="216" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="O216" s="7"/>
       <c r="Q216" s="2"/>
     </row>
-    <row r="217" spans="1:19" ht="12.95">
+    <row r="217" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="O217" s="7"/>
       <c r="Q217" s="2"/>
     </row>
-    <row r="218" spans="1:19" ht="12.95">
+    <row r="218" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="O218" s="7"/>
       <c r="Q218" s="2"/>
     </row>
-    <row r="219" spans="1:19" ht="12.95">
+    <row r="219" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="O219" s="7"/>
     </row>
-    <row r="220" spans="1:19" ht="12.95">
+    <row r="220" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="O220" s="7"/>
     </row>
-    <row r="221" spans="1:19" ht="12.95">
+    <row r="221" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="O221" s="7"/>
     </row>
-    <row r="222" spans="1:19" ht="12.95">
+    <row r="222" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="O222" s="7"/>
     </row>
-    <row r="223" spans="1:19" ht="12.95">
+    <row r="223" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="O223" s="7"/>
     </row>
-    <row r="224" spans="1:19" ht="12.95">
+    <row r="224" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="O224" s="7"/>
     </row>
-    <row r="225" spans="15:15" ht="12.95">
+    <row r="225" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O225" s="7"/>
     </row>
-    <row r="226" spans="15:15" ht="12.95">
+    <row r="226" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O226" s="7"/>
     </row>
-    <row r="227" spans="15:15" ht="12.95">
+    <row r="227" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O227" s="7"/>
     </row>
-    <row r="228" spans="15:15" ht="12.95">
+    <row r="228" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O228" s="7"/>
     </row>
-    <row r="229" spans="15:15" ht="12.95">
+    <row r="229" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O229" s="7"/>
     </row>
-    <row r="230" spans="15:15" ht="12.95">
+    <row r="230" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O230" s="7"/>
     </row>
-    <row r="231" spans="15:15" ht="12.95">
+    <row r="231" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O231" s="7"/>
     </row>
-    <row r="232" spans="15:15" ht="12.95">
+    <row r="232" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O232" s="7"/>
     </row>
-    <row r="233" spans="15:15" ht="12.95">
+    <row r="233" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O233" s="7"/>
     </row>
-    <row r="234" spans="15:15" ht="12.95">
+    <row r="234" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O234" s="7"/>
     </row>
-    <row r="235" spans="15:15" ht="12.95">
+    <row r="235" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O235" s="7"/>
     </row>
-    <row r="236" spans="15:15" ht="12.95">
+    <row r="236" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O236" s="7"/>
     </row>
-    <row r="237" spans="15:15" ht="12.95">
+    <row r="237" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O237" s="7"/>
     </row>
-    <row r="238" spans="15:15" ht="12.95">
+    <row r="238" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O238" s="7"/>
     </row>
-    <row r="239" spans="15:15" ht="12.95">
+    <row r="239" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O239" s="7"/>
     </row>
-    <row r="240" spans="15:15" ht="12.95">
+    <row r="240" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O240" s="7"/>
     </row>
-    <row r="241" spans="15:15" ht="12.95">
+    <row r="241" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O241" s="7"/>
     </row>
-    <row r="242" spans="15:15" ht="12.95">
+    <row r="242" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O242" s="7"/>
     </row>
-    <row r="243" spans="15:15" ht="12.95">
+    <row r="243" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O243" s="7"/>
     </row>
-    <row r="244" spans="15:15" ht="12.95">
+    <row r="244" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O244" s="7"/>
     </row>
-    <row r="245" spans="15:15" ht="12.95">
+    <row r="245" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O245" s="7"/>
     </row>
-    <row r="246" spans="15:15" ht="12.95">
+    <row r="246" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O246" s="7"/>
     </row>
-    <row r="247" spans="15:15" ht="12.95">
+    <row r="247" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O247" s="7"/>
     </row>
-    <row r="248" spans="15:15" ht="12.95">
+    <row r="248" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O248" s="7"/>
     </row>
-    <row r="249" spans="15:15" ht="12.95">
+    <row r="249" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O249" s="7"/>
     </row>
-    <row r="250" spans="15:15" ht="12.95">
+    <row r="250" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O250" s="7"/>
     </row>
-    <row r="251" spans="15:15" ht="12.95">
+    <row r="251" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O251" s="7"/>
     </row>
-    <row r="252" spans="15:15" ht="12.95">
+    <row r="252" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O252" s="7"/>
     </row>
-    <row r="253" spans="15:15" ht="12.95">
+    <row r="253" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O253" s="7"/>
     </row>
-    <row r="254" spans="15:15" ht="12.95">
+    <row r="254" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O254" s="7"/>
     </row>
-    <row r="255" spans="15:15" ht="12.95">
+    <row r="255" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O255" s="7"/>
     </row>
-    <row r="256" spans="15:15" ht="12.95">
+    <row r="256" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O256" s="7"/>
     </row>
-    <row r="257" spans="15:15" ht="12.95">
+    <row r="257" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O257" s="7"/>
     </row>
-    <row r="258" spans="15:15" ht="12.95">
+    <row r="258" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O258" s="7"/>
     </row>
-    <row r="259" spans="15:15" ht="12.95">
+    <row r="259" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O259" s="7"/>
     </row>
-    <row r="260" spans="15:15" ht="12.95">
+    <row r="260" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O260" s="7"/>
     </row>
-    <row r="261" spans="15:15" ht="12.95">
+    <row r="261" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O261" s="7"/>
     </row>
-    <row r="262" spans="15:15" ht="12.95">
+    <row r="262" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O262" s="7"/>
     </row>
-    <row r="263" spans="15:15" ht="12.95">
+    <row r="263" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O263" s="7"/>
     </row>
-    <row r="264" spans="15:15" ht="12.95">
+    <row r="264" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O264" s="7"/>
     </row>
-    <row r="265" spans="15:15" ht="12.95">
+    <row r="265" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O265" s="7"/>
     </row>
-    <row r="266" spans="15:15" ht="12.95">
+    <row r="266" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O266" s="7"/>
     </row>
-    <row r="267" spans="15:15" ht="12.95">
+    <row r="267" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O267" s="7"/>
     </row>
-    <row r="268" spans="15:15" ht="12.95">
+    <row r="268" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O268" s="7"/>
     </row>
-    <row r="269" spans="15:15" ht="12.95">
+    <row r="269" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O269" s="7"/>
     </row>
-    <row r="270" spans="15:15" ht="12.95">
+    <row r="270" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O270" s="7"/>
     </row>
-    <row r="271" spans="15:15" ht="12.95">
+    <row r="271" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O271" s="7"/>
     </row>
-    <row r="272" spans="15:15" ht="12.95">
+    <row r="272" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O272" s="7"/>
     </row>
-    <row r="273" spans="15:15" ht="12.95">
+    <row r="273" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O273" s="7"/>
     </row>
-    <row r="274" spans="15:15" ht="12.95">
+    <row r="274" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O274" s="7"/>
     </row>
-    <row r="275" spans="15:15" ht="12.95">
+    <row r="275" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O275" s="7"/>
     </row>
-    <row r="276" spans="15:15" ht="12.95">
+    <row r="276" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O276" s="7"/>
     </row>
-    <row r="277" spans="15:15" ht="12.95">
+    <row r="277" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O277" s="7"/>
     </row>
-    <row r="278" spans="15:15" ht="12.95">
+    <row r="278" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O278" s="7"/>
     </row>
-    <row r="279" spans="15:15" ht="12.95">
+    <row r="279" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O279" s="7"/>
     </row>
-    <row r="280" spans="15:15" ht="12.95">
+    <row r="280" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O280" s="7"/>
     </row>
-    <row r="281" spans="15:15" ht="12.95">
+    <row r="281" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O281" s="7"/>
     </row>
-    <row r="282" spans="15:15" ht="12.95">
+    <row r="282" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O282" s="7"/>
     </row>
-    <row r="283" spans="15:15" ht="12.95">
+    <row r="283" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O283" s="7"/>
     </row>
-    <row r="284" spans="15:15" ht="12.95">
+    <row r="284" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O284" s="7"/>
     </row>
-    <row r="285" spans="15:15" ht="12.95">
+    <row r="285" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O285" s="7"/>
     </row>
-    <row r="286" spans="15:15" ht="12.95">
+    <row r="286" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O286" s="7"/>
     </row>
-    <row r="287" spans="15:15" ht="12.95">
+    <row r="287" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O287" s="7"/>
     </row>
-    <row r="288" spans="15:15" ht="12.95">
+    <row r="288" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O288" s="7"/>
     </row>
-    <row r="289" spans="15:15" ht="12.95">
+    <row r="289" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O289" s="7"/>
     </row>
-    <row r="290" spans="15:15" ht="12.95">
+    <row r="290" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O290" s="7"/>
     </row>
-    <row r="291" spans="15:15" ht="12.95">
+    <row r="291" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O291" s="7"/>
     </row>
-    <row r="292" spans="15:15" ht="12.95">
+    <row r="292" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O292" s="7"/>
     </row>
-    <row r="293" spans="15:15" ht="12.95">
+    <row r="293" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O293" s="7"/>
     </row>
-    <row r="294" spans="15:15" ht="12.95">
+    <row r="294" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O294" s="7"/>
     </row>
-    <row r="295" spans="15:15" ht="12.95">
+    <row r="295" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O295" s="7"/>
     </row>
-    <row r="296" spans="15:15" ht="12.95">
+    <row r="296" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O296" s="7"/>
     </row>
-    <row r="297" spans="15:15" ht="12.95">
+    <row r="297" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O297" s="7"/>
     </row>
-    <row r="298" spans="15:15" ht="12.95">
+    <row r="298" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O298" s="7"/>
     </row>
-    <row r="299" spans="15:15" ht="12.95">
+    <row r="299" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O299" s="7"/>
     </row>
-    <row r="300" spans="15:15" ht="12.95">
+    <row r="300" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O300" s="7"/>
     </row>
-    <row r="301" spans="15:15" ht="12.95">
+    <row r="301" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O301" s="7"/>
     </row>
-    <row r="302" spans="15:15" ht="12.95">
+    <row r="302" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O302" s="7"/>
     </row>
-    <row r="303" spans="15:15" ht="12.95">
+    <row r="303" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O303" s="7"/>
     </row>
-    <row r="304" spans="15:15" ht="12.95">
+    <row r="304" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O304" s="7"/>
     </row>
-    <row r="305" spans="15:15" ht="12.95">
+    <row r="305" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O305" s="7"/>
     </row>
-    <row r="306" spans="15:15" ht="12.95">
+    <row r="306" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O306" s="7"/>
     </row>
-    <row r="307" spans="15:15" ht="12.95">
+    <row r="307" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O307" s="7"/>
     </row>
-    <row r="308" spans="15:15" ht="12.95">
+    <row r="308" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O308" s="7"/>
     </row>
-    <row r="309" spans="15:15" ht="12.95">
+    <row r="309" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O309" s="7"/>
     </row>
-    <row r="310" spans="15:15" ht="12.95">
+    <row r="310" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O310" s="7"/>
     </row>
-    <row r="311" spans="15:15" ht="12.95">
+    <row r="311" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O311" s="7"/>
     </row>
-    <row r="312" spans="15:15" ht="12.95">
+    <row r="312" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O312" s="7"/>
     </row>
-    <row r="313" spans="15:15" ht="12.95">
+    <row r="313" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O313" s="7"/>
     </row>
-    <row r="314" spans="15:15" ht="12.95">
+    <row r="314" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O314" s="7"/>
     </row>
-    <row r="315" spans="15:15" ht="12.95">
+    <row r="315" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O315" s="7"/>
     </row>
-    <row r="316" spans="15:15" ht="12.95">
+    <row r="316" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O316" s="7"/>
     </row>
-    <row r="317" spans="15:15" ht="12.95">
+    <row r="317" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O317" s="7"/>
     </row>
-    <row r="318" spans="15:15" ht="12.95">
+    <row r="318" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O318" s="7"/>
     </row>
-    <row r="319" spans="15:15" ht="12.95">
+    <row r="319" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O319" s="7"/>
     </row>
-    <row r="320" spans="15:15" ht="12.95">
+    <row r="320" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O320" s="7"/>
     </row>
-    <row r="321" spans="15:15" ht="12.95">
+    <row r="321" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O321" s="7"/>
     </row>
-    <row r="322" spans="15:15" ht="12.95">
+    <row r="322" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O322" s="7"/>
     </row>
-    <row r="323" spans="15:15" ht="12.95">
+    <row r="323" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O323" s="7"/>
     </row>
-    <row r="324" spans="15:15" ht="12.95">
+    <row r="324" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O324" s="7"/>
     </row>
-    <row r="325" spans="15:15" ht="12.95">
+    <row r="325" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O325" s="7"/>
     </row>
-    <row r="326" spans="15:15" ht="12.95">
+    <row r="326" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O326" s="7"/>
     </row>
-    <row r="327" spans="15:15" ht="12.95">
+    <row r="327" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O327" s="7"/>
     </row>
-    <row r="328" spans="15:15" ht="12.95">
+    <row r="328" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O328" s="7"/>
     </row>
-    <row r="329" spans="15:15" ht="12.95">
+    <row r="329" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O329" s="7"/>
     </row>
-    <row r="330" spans="15:15" ht="12.95">
+    <row r="330" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O330" s="7"/>
     </row>
-    <row r="331" spans="15:15" ht="12.95">
+    <row r="331" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O331" s="7"/>
     </row>
-    <row r="332" spans="15:15" ht="12.95">
+    <row r="332" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O332" s="7"/>
     </row>
-    <row r="333" spans="15:15" ht="12.95">
+    <row r="333" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O333" s="7"/>
     </row>
-    <row r="334" spans="15:15" ht="12.95">
+    <row r="334" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O334" s="7"/>
     </row>
-    <row r="335" spans="15:15" ht="12.95">
+    <row r="335" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O335" s="7"/>
     </row>
-    <row r="336" spans="15:15" ht="12.95">
+    <row r="336" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O336" s="7"/>
     </row>
-    <row r="337" spans="15:15" ht="12.95">
+    <row r="337" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O337" s="7"/>
     </row>
-    <row r="338" spans="15:15" ht="12.95">
+    <row r="338" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O338" s="7"/>
     </row>
-    <row r="339" spans="15:15" ht="12.95">
+    <row r="339" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O339" s="7"/>
     </row>
-    <row r="340" spans="15:15" ht="12.95">
+    <row r="340" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O340" s="7"/>
     </row>
-    <row r="341" spans="15:15" ht="12.95">
+    <row r="341" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O341" s="7"/>
     </row>
-    <row r="342" spans="15:15" ht="12.95">
+    <row r="342" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O342" s="7"/>
     </row>
-    <row r="343" spans="15:15" ht="12.95">
+    <row r="343" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O343" s="7"/>
     </row>
-    <row r="344" spans="15:15" ht="12.95">
+    <row r="344" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O344" s="7"/>
     </row>
-    <row r="345" spans="15:15" ht="12.95">
+    <row r="345" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O345" s="7"/>
     </row>
-    <row r="346" spans="15:15" ht="12.95">
+    <row r="346" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O346" s="7"/>
     </row>
-    <row r="347" spans="15:15" ht="12.95">
+    <row r="347" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O347" s="7"/>
     </row>
-    <row r="348" spans="15:15" ht="12.95">
+    <row r="348" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O348" s="7"/>
     </row>
-    <row r="349" spans="15:15" ht="12.95">
+    <row r="349" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O349" s="7"/>
     </row>
-    <row r="350" spans="15:15" ht="12.95">
+    <row r="350" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O350" s="7"/>
     </row>
-    <row r="351" spans="15:15" ht="12.95">
+    <row r="351" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O351" s="7"/>
     </row>
-    <row r="352" spans="15:15" ht="12.95">
+    <row r="352" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O352" s="7"/>
     </row>
-    <row r="353" spans="15:15" ht="12.95">
+    <row r="353" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O353" s="7"/>
     </row>
-    <row r="354" spans="15:15" ht="12.95">
+    <row r="354" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O354" s="7"/>
     </row>
-    <row r="355" spans="15:15" ht="12.95">
+    <row r="355" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O355" s="7"/>
     </row>
-    <row r="356" spans="15:15" ht="12.95">
+    <row r="356" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O356" s="7"/>
     </row>
-    <row r="357" spans="15:15" ht="12.95">
+    <row r="357" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O357" s="7"/>
     </row>
-    <row r="358" spans="15:15" ht="12.95">
+    <row r="358" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O358" s="7"/>
     </row>
-    <row r="359" spans="15:15" ht="12.95">
+    <row r="359" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O359" s="7"/>
     </row>
-    <row r="360" spans="15:15" ht="12.95">
+    <row r="360" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O360" s="7"/>
     </row>
-    <row r="361" spans="15:15" ht="12.95">
+    <row r="361" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O361" s="7"/>
     </row>
-    <row r="362" spans="15:15" ht="12.95">
+    <row r="362" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O362" s="7"/>
     </row>
-    <row r="363" spans="15:15" ht="12.95">
+    <row r="363" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O363" s="7"/>
     </row>
-    <row r="364" spans="15:15" ht="12.95">
+    <row r="364" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O364" s="7"/>
     </row>
-    <row r="365" spans="15:15" ht="12.95">
+    <row r="365" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O365" s="7"/>
     </row>
-    <row r="366" spans="15:15" ht="12.95">
+    <row r="366" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O366" s="7"/>
     </row>
-    <row r="367" spans="15:15" ht="12.95">
+    <row r="367" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O367" s="7"/>
     </row>
-    <row r="368" spans="15:15" ht="12.95">
+    <row r="368" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O368" s="7"/>
     </row>
-    <row r="369" spans="15:15" ht="12.95">
+    <row r="369" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O369" s="7"/>
     </row>
-    <row r="370" spans="15:15" ht="12.95">
+    <row r="370" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O370" s="7"/>
     </row>
-    <row r="371" spans="15:15" ht="12.95">
+    <row r="371" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O371" s="7"/>
     </row>
-    <row r="372" spans="15:15" ht="12.95">
+    <row r="372" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O372" s="7"/>
     </row>
-    <row r="373" spans="15:15" ht="12.95">
+    <row r="373" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O373" s="7"/>
     </row>
-    <row r="374" spans="15:15" ht="12.95">
+    <row r="374" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O374" s="7"/>
     </row>
-    <row r="375" spans="15:15" ht="12.95">
+    <row r="375" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O375" s="7"/>
     </row>
-    <row r="376" spans="15:15" ht="12.95">
+    <row r="376" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O376" s="7"/>
     </row>
-    <row r="377" spans="15:15" ht="12.95">
+    <row r="377" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O377" s="7"/>
     </row>
-    <row r="378" spans="15:15" ht="12.95">
+    <row r="378" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O378" s="7"/>
     </row>
-    <row r="379" spans="15:15" ht="12.95">
+    <row r="379" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O379" s="7"/>
     </row>
-    <row r="380" spans="15:15" ht="12.95">
+    <row r="380" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O380" s="7"/>
     </row>
-    <row r="381" spans="15:15" ht="12.95">
+    <row r="381" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O381" s="7"/>
     </row>
-    <row r="382" spans="15:15" ht="12.95">
+    <row r="382" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O382" s="7"/>
     </row>
-    <row r="383" spans="15:15" ht="12.95">
+    <row r="383" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O383" s="7"/>
     </row>
-    <row r="384" spans="15:15" ht="12.95">
+    <row r="384" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O384" s="7"/>
     </row>
-    <row r="385" spans="15:15" ht="12.95">
+    <row r="385" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O385" s="7"/>
     </row>
-    <row r="386" spans="15:15" ht="12.95">
+    <row r="386" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O386" s="7"/>
     </row>
-    <row r="387" spans="15:15" ht="12.95">
+    <row r="387" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O387" s="7"/>
     </row>
-    <row r="388" spans="15:15" ht="12.95">
+    <row r="388" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O388" s="7"/>
     </row>
-    <row r="389" spans="15:15" ht="12.95">
+    <row r="389" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O389" s="7"/>
     </row>
-    <row r="390" spans="15:15" ht="12.95">
+    <row r="390" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O390" s="7"/>
     </row>
-    <row r="391" spans="15:15" ht="12.95">
+    <row r="391" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O391" s="7"/>
     </row>
-    <row r="392" spans="15:15" ht="12.95">
+    <row r="392" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O392" s="7"/>
     </row>
-    <row r="393" spans="15:15" ht="12.95">
+    <row r="393" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O393" s="7"/>
     </row>
-    <row r="394" spans="15:15" ht="12.95">
+    <row r="394" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O394" s="7"/>
     </row>
-    <row r="395" spans="15:15" ht="12.95">
+    <row r="395" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O395" s="7"/>
     </row>
-    <row r="396" spans="15:15" ht="12.95">
+    <row r="396" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O396" s="7"/>
     </row>
-    <row r="397" spans="15:15" ht="12.95">
+    <row r="397" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O397" s="7"/>
     </row>
-    <row r="398" spans="15:15" ht="12.95">
+    <row r="398" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O398" s="7"/>
     </row>
-    <row r="399" spans="15:15" ht="12.95">
+    <row r="399" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O399" s="7"/>
     </row>
-    <row r="400" spans="15:15" ht="12.95">
+    <row r="400" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O400" s="7"/>
     </row>
-    <row r="401" spans="15:15" ht="12.95">
+    <row r="401" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O401" s="7"/>
     </row>
-    <row r="402" spans="15:15" ht="12.95">
+    <row r="402" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O402" s="7"/>
     </row>
-    <row r="403" spans="15:15" ht="12.95">
+    <row r="403" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O403" s="7"/>
     </row>
-    <row r="404" spans="15:15" ht="12.95">
+    <row r="404" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O404" s="7"/>
     </row>
-    <row r="405" spans="15:15" ht="12.95">
+    <row r="405" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O405" s="7"/>
     </row>
-    <row r="406" spans="15:15" ht="12.95">
+    <row r="406" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O406" s="7"/>
     </row>
-    <row r="407" spans="15:15" ht="12.95">
+    <row r="407" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O407" s="7"/>
     </row>
-    <row r="408" spans="15:15" ht="12.95">
+    <row r="408" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O408" s="7"/>
     </row>
-    <row r="409" spans="15:15" ht="12.95">
+    <row r="409" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O409" s="7"/>
     </row>
-    <row r="410" spans="15:15" ht="12.95">
+    <row r="410" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O410" s="7"/>
     </row>
-    <row r="411" spans="15:15" ht="12.95">
+    <row r="411" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O411" s="7"/>
     </row>
-    <row r="412" spans="15:15" ht="12.95">
+    <row r="412" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O412" s="7"/>
     </row>
-    <row r="413" spans="15:15" ht="12.95">
+    <row r="413" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O413" s="7"/>
     </row>
-    <row r="414" spans="15:15" ht="12.95">
+    <row r="414" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O414" s="7"/>
     </row>
-    <row r="415" spans="15:15" ht="12.95">
+    <row r="415" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O415" s="7"/>
     </row>
-    <row r="416" spans="15:15" ht="12.95">
+    <row r="416" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O416" s="7"/>
     </row>
-    <row r="417" spans="15:15" ht="12.95">
+    <row r="417" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O417" s="7"/>
     </row>
-    <row r="418" spans="15:15" ht="12.95">
+    <row r="418" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O418" s="7"/>
     </row>
-    <row r="419" spans="15:15" ht="12.95">
+    <row r="419" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O419" s="7"/>
     </row>
-    <row r="420" spans="15:15" ht="12.95">
+    <row r="420" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O420" s="7"/>
     </row>
-    <row r="421" spans="15:15" ht="12.95">
+    <row r="421" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O421" s="7"/>
     </row>
-    <row r="422" spans="15:15" ht="12.95">
+    <row r="422" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O422" s="7"/>
     </row>
-    <row r="423" spans="15:15" ht="12.95">
+    <row r="423" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O423" s="7"/>
     </row>
-    <row r="424" spans="15:15" ht="12.95">
+    <row r="424" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O424" s="7"/>
     </row>
-    <row r="425" spans="15:15" ht="12.95">
+    <row r="425" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O425" s="7"/>
     </row>
-    <row r="426" spans="15:15" ht="12.95">
+    <row r="426" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O426" s="7"/>
     </row>
-    <row r="427" spans="15:15" ht="12.95">
+    <row r="427" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O427" s="7"/>
     </row>
-    <row r="428" spans="15:15" ht="12.95">
+    <row r="428" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O428" s="7"/>
     </row>
-    <row r="429" spans="15:15" ht="12.95">
+    <row r="429" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O429" s="7"/>
     </row>
-    <row r="430" spans="15:15" ht="12.95">
+    <row r="430" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O430" s="7"/>
     </row>
-    <row r="431" spans="15:15" ht="12.95">
+    <row r="431" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O431" s="7"/>
     </row>
-    <row r="432" spans="15:15" ht="12.95">
+    <row r="432" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O432" s="7"/>
     </row>
-    <row r="433" spans="15:15" ht="12.95">
+    <row r="433" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O433" s="7"/>
     </row>
-    <row r="434" spans="15:15" ht="12.95">
+    <row r="434" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O434" s="7"/>
     </row>
-    <row r="435" spans="15:15" ht="12.95">
+    <row r="435" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O435" s="7"/>
     </row>
-    <row r="436" spans="15:15" ht="12.95">
+    <row r="436" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O436" s="7"/>
     </row>
-    <row r="437" spans="15:15" ht="12.95">
+    <row r="437" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O437" s="7"/>
     </row>
-    <row r="438" spans="15:15" ht="12.95">
+    <row r="438" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O438" s="7"/>
     </row>
-    <row r="439" spans="15:15" ht="12.95">
+    <row r="439" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O439" s="7"/>
     </row>
-    <row r="440" spans="15:15" ht="12.95">
+    <row r="440" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O440" s="7"/>
     </row>
-    <row r="441" spans="15:15" ht="12.95">
+    <row r="441" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O441" s="7"/>
     </row>
-    <row r="442" spans="15:15" ht="12.95">
+    <row r="442" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O442" s="7"/>
     </row>
-    <row r="443" spans="15:15" ht="12.95">
+    <row r="443" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O443" s="7"/>
     </row>
-    <row r="444" spans="15:15" ht="12.95">
+    <row r="444" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O444" s="7"/>
     </row>
-    <row r="445" spans="15:15" ht="12.95">
+    <row r="445" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O445" s="7"/>
     </row>
-    <row r="446" spans="15:15" ht="12.95">
+    <row r="446" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O446" s="7"/>
     </row>
-    <row r="447" spans="15:15" ht="12.95">
+    <row r="447" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O447" s="7"/>
     </row>
-    <row r="448" spans="15:15" ht="12.95">
+    <row r="448" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O448" s="7"/>
     </row>
-    <row r="449" spans="15:15" ht="12.95">
+    <row r="449" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O449" s="7"/>
     </row>
-    <row r="450" spans="15:15" ht="12.95">
+    <row r="450" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O450" s="7"/>
     </row>
-    <row r="451" spans="15:15" ht="12.95">
+    <row r="451" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O451" s="7"/>
     </row>
-    <row r="452" spans="15:15" ht="12.95">
+    <row r="452" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O452" s="7"/>
     </row>
-    <row r="453" spans="15:15" ht="12.95">
+    <row r="453" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O453" s="7"/>
     </row>
-    <row r="454" spans="15:15" ht="12.95">
+    <row r="454" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O454" s="7"/>
     </row>
-    <row r="455" spans="15:15" ht="12.95">
+    <row r="455" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O455" s="7"/>
     </row>
-    <row r="456" spans="15:15" ht="12.95">
+    <row r="456" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O456" s="7"/>
     </row>
-    <row r="457" spans="15:15" ht="12.95">
+    <row r="457" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O457" s="7"/>
     </row>
-    <row r="458" spans="15:15" ht="12.95">
+    <row r="458" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O458" s="7"/>
     </row>
-    <row r="459" spans="15:15" ht="12.95">
+    <row r="459" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O459" s="7"/>
     </row>
-    <row r="460" spans="15:15" ht="12.95">
+    <row r="460" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O460" s="7"/>
     </row>
-    <row r="461" spans="15:15" ht="12.95">
+    <row r="461" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O461" s="7"/>
     </row>
-    <row r="462" spans="15:15" ht="12.95">
+    <row r="462" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O462" s="7"/>
     </row>
-    <row r="463" spans="15:15" ht="12.95">
+    <row r="463" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O463" s="7"/>
     </row>
-    <row r="464" spans="15:15" ht="12.95">
+    <row r="464" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O464" s="7"/>
     </row>
-    <row r="465" spans="15:15" ht="12.95">
+    <row r="465" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O465" s="7"/>
     </row>
-    <row r="466" spans="15:15" ht="12.95">
+    <row r="466" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O466" s="7"/>
     </row>
-    <row r="467" spans="15:15" ht="12.95">
+    <row r="467" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O467" s="7"/>
     </row>
-    <row r="468" spans="15:15" ht="12.95">
+    <row r="468" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O468" s="7"/>
     </row>
-    <row r="469" spans="15:15" ht="12.95">
+    <row r="469" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O469" s="7"/>
     </row>
-    <row r="470" spans="15:15" ht="12.95">
+    <row r="470" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O470" s="7"/>
     </row>
-    <row r="471" spans="15:15" ht="12.95">
+    <row r="471" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O471" s="7"/>
     </row>
-    <row r="472" spans="15:15" ht="12.95">
+    <row r="472" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O472" s="7"/>
     </row>
-    <row r="473" spans="15:15" ht="12.95">
+    <row r="473" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O473" s="7"/>
     </row>
-    <row r="474" spans="15:15" ht="12.95">
+    <row r="474" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O474" s="7"/>
     </row>
-    <row r="475" spans="15:15" ht="12.95">
+    <row r="475" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O475" s="7"/>
     </row>
-    <row r="476" spans="15:15" ht="12.95">
+    <row r="476" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O476" s="7"/>
     </row>
-    <row r="477" spans="15:15" ht="12.95">
+    <row r="477" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O477" s="7"/>
     </row>
-    <row r="478" spans="15:15" ht="12.95">
+    <row r="478" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O478" s="7"/>
     </row>
-    <row r="479" spans="15:15" ht="12.95">
+    <row r="479" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O479" s="7"/>
     </row>
-    <row r="480" spans="15:15" ht="12.95">
+    <row r="480" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O480" s="7"/>
     </row>
-    <row r="481" spans="15:15" ht="12.95">
+    <row r="481" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O481" s="7"/>
     </row>
-    <row r="482" spans="15:15" ht="12.95">
+    <row r="482" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O482" s="7"/>
     </row>
-    <row r="483" spans="15:15" ht="12.95">
+    <row r="483" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O483" s="7"/>
     </row>
-    <row r="484" spans="15:15" ht="12.95">
+    <row r="484" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O484" s="7"/>
     </row>
-    <row r="485" spans="15:15" ht="12.95">
+    <row r="485" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O485" s="7"/>
     </row>
-    <row r="486" spans="15:15" ht="12.95">
+    <row r="486" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O486" s="7"/>
     </row>
-    <row r="487" spans="15:15" ht="12.95">
+    <row r="487" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O487" s="7"/>
     </row>
-    <row r="488" spans="15:15" ht="12.95">
+    <row r="488" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O488" s="7"/>
     </row>
-    <row r="489" spans="15:15" ht="12.95">
+    <row r="489" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O489" s="7"/>
     </row>
-    <row r="490" spans="15:15" ht="12.95">
+    <row r="490" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O490" s="7"/>
     </row>
-    <row r="491" spans="15:15" ht="12.95">
+    <row r="491" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O491" s="7"/>
     </row>
-    <row r="492" spans="15:15" ht="12.95">
+    <row r="492" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O492" s="7"/>
     </row>
-    <row r="493" spans="15:15" ht="12.95">
+    <row r="493" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O493" s="7"/>
     </row>
-    <row r="494" spans="15:15" ht="12.95">
+    <row r="494" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O494" s="7"/>
     </row>
-    <row r="495" spans="15:15" ht="12.95">
+    <row r="495" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O495" s="7"/>
     </row>
-    <row r="496" spans="15:15" ht="12.95">
+    <row r="496" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O496" s="7"/>
     </row>
-    <row r="497" spans="15:15" ht="12.95">
+    <row r="497" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O497" s="7"/>
     </row>
-    <row r="498" spans="15:15" ht="12.95">
+    <row r="498" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O498" s="7"/>
     </row>
-    <row r="499" spans="15:15" ht="12.95">
+    <row r="499" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O499" s="7"/>
     </row>
-    <row r="500" spans="15:15" ht="12.95">
+    <row r="500" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O500" s="7"/>
     </row>
-    <row r="501" spans="15:15" ht="12.95">
+    <row r="501" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O501" s="7"/>
     </row>
-    <row r="502" spans="15:15" ht="12.95">
+    <row r="502" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O502" s="7"/>
     </row>
-    <row r="503" spans="15:15" ht="12.95">
+    <row r="503" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O503" s="7"/>
     </row>
-    <row r="504" spans="15:15" ht="12.95">
+    <row r="504" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O504" s="7"/>
     </row>
-    <row r="505" spans="15:15" ht="12.95">
+    <row r="505" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O505" s="7"/>
     </row>
-    <row r="506" spans="15:15" ht="12.95">
+    <row r="506" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O506" s="7"/>
     </row>
-    <row r="507" spans="15:15" ht="12.95">
+    <row r="507" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O507" s="7"/>
     </row>
-    <row r="508" spans="15:15" ht="12.95">
+    <row r="508" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O508" s="7"/>
     </row>
-    <row r="509" spans="15:15" ht="12.95">
+    <row r="509" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O509" s="7"/>
     </row>
-    <row r="510" spans="15:15" ht="12.95">
+    <row r="510" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O510" s="7"/>
     </row>
-    <row r="511" spans="15:15" ht="12.95">
+    <row r="511" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O511" s="7"/>
     </row>
-    <row r="512" spans="15:15" ht="12.95">
+    <row r="512" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O512" s="7"/>
     </row>
-    <row r="513" spans="15:15" ht="12.95">
+    <row r="513" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O513" s="7"/>
     </row>
-    <row r="514" spans="15:15" ht="12.95">
+    <row r="514" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O514" s="7"/>
     </row>
-    <row r="515" spans="15:15" ht="12.95">
+    <row r="515" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O515" s="7"/>
     </row>
-    <row r="516" spans="15:15" ht="12.95">
+    <row r="516" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O516" s="7"/>
     </row>
-    <row r="517" spans="15:15" ht="12.95">
+    <row r="517" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O517" s="7"/>
     </row>
-    <row r="518" spans="15:15" ht="12.95">
+    <row r="518" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O518" s="7"/>
     </row>
-    <row r="519" spans="15:15" ht="12.95">
+    <row r="519" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O519" s="7"/>
     </row>
-    <row r="520" spans="15:15" ht="12.95">
+    <row r="520" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O520" s="7"/>
     </row>
-    <row r="521" spans="15:15" ht="12.95">
+    <row r="521" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O521" s="7"/>
     </row>
-    <row r="522" spans="15:15" ht="12.95">
+    <row r="522" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O522" s="7"/>
     </row>
-    <row r="523" spans="15:15" ht="12.95">
+    <row r="523" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O523" s="7"/>
     </row>
-    <row r="524" spans="15:15" ht="12.95">
+    <row r="524" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O524" s="7"/>
     </row>
-    <row r="525" spans="15:15" ht="12.95">
+    <row r="525" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O525" s="7"/>
     </row>
-    <row r="526" spans="15:15" ht="12.95">
+    <row r="526" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O526" s="7"/>
     </row>
-    <row r="527" spans="15:15" ht="12.95">
+    <row r="527" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O527" s="7"/>
     </row>
-    <row r="528" spans="15:15" ht="12.95">
+    <row r="528" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O528" s="7"/>
     </row>
-    <row r="529" spans="15:15" ht="12.95">
+    <row r="529" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O529" s="7"/>
     </row>
-    <row r="530" spans="15:15" ht="12.95">
+    <row r="530" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O530" s="7"/>
     </row>
-    <row r="531" spans="15:15" ht="12.95">
+    <row r="531" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O531" s="7"/>
     </row>
-    <row r="532" spans="15:15" ht="12.95">
+    <row r="532" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O532" s="7"/>
     </row>
-    <row r="533" spans="15:15" ht="12.95">
+    <row r="533" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O533" s="7"/>
     </row>
-    <row r="534" spans="15:15" ht="12.95">
+    <row r="534" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O534" s="7"/>
     </row>
-    <row r="535" spans="15:15" ht="12.95">
+    <row r="535" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O535" s="7"/>
     </row>
-    <row r="536" spans="15:15" ht="12.95">
+    <row r="536" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O536" s="7"/>
     </row>
-    <row r="537" spans="15:15" ht="12.95">
+    <row r="537" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O537" s="7"/>
     </row>
-    <row r="538" spans="15:15" ht="12.95">
+    <row r="538" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O538" s="7"/>
     </row>
-    <row r="539" spans="15:15" ht="12.95">
+    <row r="539" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O539" s="7"/>
     </row>
-    <row r="540" spans="15:15" ht="12.95">
+    <row r="540" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O540" s="7"/>
     </row>
-    <row r="541" spans="15:15" ht="12.95">
+    <row r="541" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O541" s="7"/>
     </row>
-    <row r="542" spans="15:15" ht="12.95">
+    <row r="542" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O542" s="7"/>
     </row>
-    <row r="543" spans="15:15" ht="12.95">
+    <row r="543" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O543" s="7"/>
     </row>
-    <row r="544" spans="15:15" ht="12.95">
+    <row r="544" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O544" s="7"/>
     </row>
-    <row r="545" spans="15:15" ht="12.95">
+    <row r="545" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O545" s="7"/>
     </row>
-    <row r="546" spans="15:15" ht="12.95">
+    <row r="546" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O546" s="7"/>
     </row>
-    <row r="547" spans="15:15" ht="12.95">
+    <row r="547" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O547" s="7"/>
     </row>
-    <row r="548" spans="15:15" ht="12.95">
+    <row r="548" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O548" s="7"/>
     </row>
-    <row r="549" spans="15:15" ht="12.95">
+    <row r="549" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O549" s="7"/>
     </row>
-    <row r="550" spans="15:15" ht="12.95">
+    <row r="550" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O550" s="7"/>
     </row>
-    <row r="551" spans="15:15" ht="12.95">
+    <row r="551" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O551" s="7"/>
     </row>
-    <row r="552" spans="15:15" ht="12.95">
+    <row r="552" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O552" s="7"/>
     </row>
-    <row r="553" spans="15:15" ht="12.95">
+    <row r="553" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O553" s="7"/>
     </row>
-    <row r="554" spans="15:15" ht="12.95">
+    <row r="554" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O554" s="7"/>
     </row>
-    <row r="555" spans="15:15" ht="12.95">
+    <row r="555" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O555" s="7"/>
     </row>
-    <row r="556" spans="15:15" ht="12.95">
+    <row r="556" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O556" s="7"/>
     </row>
-    <row r="557" spans="15:15" ht="12.95">
+    <row r="557" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O557" s="7"/>
     </row>
-    <row r="558" spans="15:15" ht="12.95">
+    <row r="558" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O558" s="7"/>
     </row>
-    <row r="559" spans="15:15" ht="12.95">
+    <row r="559" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O559" s="7"/>
     </row>
-    <row r="560" spans="15:15" ht="12.95">
+    <row r="560" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O560" s="7"/>
     </row>
-    <row r="561" spans="15:15" ht="12.95">
+    <row r="561" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O561" s="7"/>
     </row>
-    <row r="562" spans="15:15" ht="12.95">
+    <row r="562" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O562" s="7"/>
     </row>
-    <row r="563" spans="15:15" ht="12.95">
+    <row r="563" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O563" s="7"/>
     </row>
-    <row r="564" spans="15:15" ht="12.95">
+    <row r="564" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O564" s="7"/>
     </row>
-    <row r="565" spans="15:15" ht="12.95">
+    <row r="565" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O565" s="7"/>
     </row>
-    <row r="566" spans="15:15" ht="12.95">
+    <row r="566" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O566" s="7"/>
     </row>
-    <row r="567" spans="15:15" ht="12.95">
+    <row r="567" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O567" s="7"/>
     </row>
-    <row r="568" spans="15:15" ht="12.95">
+    <row r="568" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O568" s="7"/>
     </row>
-    <row r="569" spans="15:15" ht="12.95">
+    <row r="569" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O569" s="7"/>
     </row>
-    <row r="570" spans="15:15" ht="12.95">
+    <row r="570" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O570" s="7"/>
     </row>
-    <row r="571" spans="15:15" ht="12.95">
+    <row r="571" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O571" s="7"/>
     </row>
-    <row r="572" spans="15:15" ht="12.95">
+    <row r="572" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O572" s="7"/>
     </row>
-    <row r="573" spans="15:15" ht="12.95">
+    <row r="573" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O573" s="7"/>
     </row>
-    <row r="574" spans="15:15" ht="12.95">
+    <row r="574" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O574" s="7"/>
     </row>
-    <row r="575" spans="15:15" ht="12.95">
+    <row r="575" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O575" s="7"/>
     </row>
-    <row r="576" spans="15:15" ht="12.95">
+    <row r="576" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O576" s="7"/>
     </row>
-    <row r="577" spans="15:15" ht="12.95">
+    <row r="577" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O577" s="7"/>
     </row>
-    <row r="578" spans="15:15" ht="12.95">
+    <row r="578" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O578" s="7"/>
     </row>
-    <row r="579" spans="15:15" ht="12.95">
+    <row r="579" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O579" s="7"/>
     </row>
-    <row r="580" spans="15:15" ht="12.95">
+    <row r="580" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O580" s="7"/>
     </row>
-    <row r="581" spans="15:15" ht="12.95">
+    <row r="581" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O581" s="7"/>
     </row>
-    <row r="582" spans="15:15" ht="12.95">
+    <row r="582" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O582" s="7"/>
     </row>
-    <row r="583" spans="15:15" ht="12.95">
+    <row r="583" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O583" s="7"/>
     </row>
-    <row r="584" spans="15:15" ht="12.95">
+    <row r="584" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O584" s="7"/>
     </row>
-    <row r="585" spans="15:15" ht="12.95">
+    <row r="585" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O585" s="7"/>
     </row>
-    <row r="586" spans="15:15" ht="12.95">
+    <row r="586" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O586" s="7"/>
     </row>
-    <row r="587" spans="15:15" ht="12.95">
+    <row r="587" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O587" s="7"/>
     </row>
-    <row r="588" spans="15:15" ht="12.95">
+    <row r="588" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O588" s="7"/>
     </row>
-    <row r="589" spans="15:15" ht="12.95">
+    <row r="589" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O589" s="7"/>
     </row>
-    <row r="590" spans="15:15" ht="12.95">
+    <row r="590" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O590" s="7"/>
     </row>
-    <row r="591" spans="15:15" ht="12.95">
+    <row r="591" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O591" s="7"/>
     </row>
-    <row r="592" spans="15:15" ht="12.95">
+    <row r="592" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O592" s="7"/>
     </row>
-    <row r="593" spans="15:15" ht="12.95">
+    <row r="593" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O593" s="7"/>
     </row>
-    <row r="594" spans="15:15" ht="12.95">
+    <row r="594" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O594" s="7"/>
     </row>
-    <row r="595" spans="15:15" ht="12.95">
+    <row r="595" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O595" s="7"/>
     </row>
-    <row r="596" spans="15:15" ht="12.95">
+    <row r="596" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O596" s="7"/>
     </row>
-    <row r="597" spans="15:15" ht="12.95">
+    <row r="597" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O597" s="7"/>
     </row>
-    <row r="598" spans="15:15" ht="12.95">
+    <row r="598" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O598" s="7"/>
     </row>
-    <row r="599" spans="15:15" ht="12.95">
+    <row r="599" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O599" s="7"/>
     </row>
-    <row r="600" spans="15:15" ht="12.95">
+    <row r="600" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O600" s="7"/>
     </row>
-    <row r="601" spans="15:15" ht="12.95">
+    <row r="601" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O601" s="7"/>
     </row>
-    <row r="602" spans="15:15" ht="12.95">
+    <row r="602" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O602" s="7"/>
     </row>
-    <row r="603" spans="15:15" ht="12.95">
+    <row r="603" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O603" s="7"/>
     </row>
-    <row r="604" spans="15:15" ht="12.95">
+    <row r="604" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O604" s="7"/>
     </row>
-    <row r="605" spans="15:15" ht="12.95">
+    <row r="605" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O605" s="7"/>
     </row>
-    <row r="606" spans="15:15" ht="12.95">
+    <row r="606" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O606" s="7"/>
     </row>
-    <row r="607" spans="15:15" ht="12.95">
+    <row r="607" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O607" s="7"/>
     </row>
-    <row r="608" spans="15:15" ht="12.95">
+    <row r="608" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O608" s="7"/>
     </row>
-    <row r="609" spans="15:15" ht="12.95">
+    <row r="609" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O609" s="7"/>
     </row>
-    <row r="610" spans="15:15" ht="12.95">
+    <row r="610" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O610" s="7"/>
     </row>
-    <row r="611" spans="15:15" ht="12.95">
+    <row r="611" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O611" s="7"/>
     </row>
-    <row r="612" spans="15:15" ht="12.95">
+    <row r="612" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O612" s="7"/>
     </row>
-    <row r="613" spans="15:15" ht="12.95">
+    <row r="613" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O613" s="7"/>
     </row>
-    <row r="614" spans="15:15" ht="12.95">
+    <row r="614" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O614" s="7"/>
     </row>
-    <row r="615" spans="15:15" ht="12.95">
+    <row r="615" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O615" s="7"/>
     </row>
-    <row r="616" spans="15:15" ht="12.95">
+    <row r="616" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O616" s="7"/>
     </row>
-    <row r="617" spans="15:15" ht="12.95">
+    <row r="617" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O617" s="7"/>
     </row>
-    <row r="618" spans="15:15" ht="12.95">
+    <row r="618" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O618" s="7"/>
     </row>
-    <row r="619" spans="15:15" ht="12.95">
+    <row r="619" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O619" s="7"/>
     </row>
-    <row r="620" spans="15:15" ht="12.95">
+    <row r="620" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O620" s="7"/>
     </row>
-    <row r="621" spans="15:15" ht="12.95">
+    <row r="621" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O621" s="7"/>
     </row>
-    <row r="622" spans="15:15" ht="12.95">
+    <row r="622" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O622" s="7"/>
     </row>
-    <row r="623" spans="15:15" ht="12.95">
+    <row r="623" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O623" s="7"/>
     </row>
-    <row r="624" spans="15:15" ht="12.95">
+    <row r="624" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O624" s="7"/>
     </row>
-    <row r="625" spans="15:15" ht="12.95">
+    <row r="625" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O625" s="7"/>
     </row>
-    <row r="626" spans="15:15" ht="12.95">
+    <row r="626" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O626" s="7"/>
     </row>
-    <row r="627" spans="15:15" ht="12.95">
+    <row r="627" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O627" s="7"/>
     </row>
-    <row r="628" spans="15:15" ht="12.95">
+    <row r="628" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O628" s="7"/>
     </row>
-    <row r="629" spans="15:15" ht="12.95">
+    <row r="629" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O629" s="7"/>
     </row>
-    <row r="630" spans="15:15" ht="12.95">
+    <row r="630" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O630" s="7"/>
     </row>
-    <row r="631" spans="15:15" ht="12.95">
+    <row r="631" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O631" s="7"/>
     </row>
-    <row r="632" spans="15:15" ht="12.95">
+    <row r="632" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O632" s="7"/>
     </row>
-    <row r="633" spans="15:15" ht="12.95">
+    <row r="633" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O633" s="7"/>
     </row>
-    <row r="634" spans="15:15" ht="12.95">
+    <row r="634" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O634" s="7"/>
     </row>
-    <row r="635" spans="15:15" ht="12.95">
+    <row r="635" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O635" s="7"/>
     </row>
-    <row r="636" spans="15:15" ht="12.95">
+    <row r="636" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O636" s="7"/>
     </row>
-    <row r="637" spans="15:15" ht="12.95">
+    <row r="637" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O637" s="7"/>
     </row>
-    <row r="638" spans="15:15" ht="12.95">
+    <row r="638" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O638" s="7"/>
     </row>
-    <row r="639" spans="15:15" ht="12.95">
+    <row r="639" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O639" s="7"/>
     </row>
-    <row r="640" spans="15:15" ht="12.95">
+    <row r="640" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O640" s="7"/>
     </row>
-    <row r="641" spans="15:15" ht="12.95">
+    <row r="641" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O641" s="7"/>
     </row>
-    <row r="642" spans="15:15" ht="12.95">
+    <row r="642" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O642" s="7"/>
     </row>
-    <row r="643" spans="15:15" ht="12.95">
+    <row r="643" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O643" s="7"/>
     </row>
-    <row r="644" spans="15:15" ht="12.95">
+    <row r="644" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O644" s="7"/>
     </row>
-    <row r="645" spans="15:15" ht="12.95">
+    <row r="645" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O645" s="7"/>
     </row>
-    <row r="646" spans="15:15" ht="12.95">
+    <row r="646" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O646" s="7"/>
     </row>
-    <row r="647" spans="15:15" ht="12.95">
+    <row r="647" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O647" s="7"/>
     </row>
-    <row r="648" spans="15:15" ht="12.95">
+    <row r="648" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O648" s="7"/>
     </row>
-    <row r="649" spans="15:15" ht="12.95">
+    <row r="649" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O649" s="7"/>
     </row>
-    <row r="650" spans="15:15" ht="12.95">
+    <row r="650" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O650" s="7"/>
     </row>
-    <row r="651" spans="15:15" ht="12.95">
+    <row r="651" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O651" s="7"/>
     </row>
-    <row r="652" spans="15:15" ht="12.95">
+    <row r="652" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O652" s="7"/>
     </row>
-    <row r="653" spans="15:15" ht="12.95">
+    <row r="653" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O653" s="7"/>
     </row>
-    <row r="654" spans="15:15" ht="12.95">
+    <row r="654" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O654" s="7"/>
     </row>
-    <row r="655" spans="15:15" ht="12.95">
+    <row r="655" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O655" s="7"/>
     </row>
-    <row r="656" spans="15:15" ht="12.95">
+    <row r="656" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O656" s="7"/>
     </row>
-    <row r="657" spans="15:15" ht="12.95">
+    <row r="657" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O657" s="7"/>
     </row>
-    <row r="658" spans="15:15" ht="12.95">
+    <row r="658" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O658" s="7"/>
     </row>
-    <row r="659" spans="15:15" ht="12.95">
+    <row r="659" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O659" s="7"/>
     </row>
-    <row r="660" spans="15:15" ht="12.95">
+    <row r="660" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O660" s="7"/>
     </row>
-    <row r="661" spans="15:15" ht="12.95">
+    <row r="661" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O661" s="7"/>
     </row>
-    <row r="662" spans="15:15" ht="12.95">
+    <row r="662" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O662" s="7"/>
     </row>
-    <row r="663" spans="15:15" ht="12.95">
+    <row r="663" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O663" s="7"/>
     </row>
-    <row r="664" spans="15:15" ht="12.95">
+    <row r="664" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O664" s="7"/>
     </row>
-    <row r="665" spans="15:15" ht="12.95">
+    <row r="665" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O665" s="7"/>
     </row>
-    <row r="666" spans="15:15" ht="12.95">
+    <row r="666" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O666" s="7"/>
     </row>
-    <row r="667" spans="15:15" ht="12.95">
+    <row r="667" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O667" s="7"/>
     </row>
-    <row r="668" spans="15:15" ht="12.95">
+    <row r="668" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O668" s="7"/>
     </row>
-    <row r="669" spans="15:15" ht="12.95">
+    <row r="669" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O669" s="7"/>
     </row>
-    <row r="670" spans="15:15" ht="12.95">
+    <row r="670" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O670" s="7"/>
     </row>
-    <row r="671" spans="15:15" ht="12.95">
+    <row r="671" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O671" s="7"/>
     </row>
-    <row r="672" spans="15:15" ht="12.95">
+    <row r="672" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O672" s="7"/>
     </row>
-    <row r="673" spans="15:15" ht="12.95">
+    <row r="673" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O673" s="7"/>
     </row>
-    <row r="674" spans="15:15" ht="12.95">
+    <row r="674" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O674" s="7"/>
     </row>
-    <row r="675" spans="15:15" ht="12.95">
+    <row r="675" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O675" s="7"/>
     </row>
-    <row r="676" spans="15:15" ht="12.95">
+    <row r="676" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O676" s="7"/>
     </row>
-    <row r="677" spans="15:15" ht="12.95">
+    <row r="677" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O677" s="7"/>
     </row>
-    <row r="678" spans="15:15" ht="12.95">
+    <row r="678" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O678" s="7"/>
     </row>
-    <row r="679" spans="15:15" ht="12.95">
+    <row r="679" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O679" s="7"/>
     </row>
-    <row r="680" spans="15:15" ht="12.95">
+    <row r="680" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O680" s="7"/>
     </row>
-    <row r="681" spans="15:15" ht="12.95">
+    <row r="681" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O681" s="7"/>
     </row>
-    <row r="682" spans="15:15" ht="12.95">
+    <row r="682" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O682" s="7"/>
     </row>
-    <row r="683" spans="15:15" ht="12.95">
+    <row r="683" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O683" s="7"/>
     </row>
-    <row r="684" spans="15:15" ht="12.95">
+    <row r="684" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O684" s="7"/>
     </row>
-    <row r="685" spans="15:15" ht="12.95">
+    <row r="685" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O685" s="7"/>
     </row>
-    <row r="686" spans="15:15" ht="12.95">
+    <row r="686" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O686" s="7"/>
     </row>
-    <row r="687" spans="15:15" ht="12.95">
+    <row r="687" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O687" s="7"/>
     </row>
-    <row r="688" spans="15:15" ht="12.95">
+    <row r="688" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O688" s="7"/>
     </row>
-    <row r="689" spans="15:15" ht="12.95">
+    <row r="689" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O689" s="7"/>
     </row>
-    <row r="690" spans="15:15" ht="12.95">
+    <row r="690" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O690" s="7"/>
     </row>
-    <row r="691" spans="15:15" ht="12.95">
+    <row r="691" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O691" s="7"/>
     </row>
-    <row r="692" spans="15:15" ht="12.95">
+    <row r="692" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O692" s="7"/>
     </row>
-    <row r="693" spans="15:15" ht="12.95">
+    <row r="693" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O693" s="7"/>
     </row>
-    <row r="694" spans="15:15" ht="12.95">
+    <row r="694" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O694" s="7"/>
     </row>
-    <row r="695" spans="15:15" ht="12.95">
+    <row r="695" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O695" s="7"/>
     </row>
-    <row r="696" spans="15:15" ht="12.95">
+    <row r="696" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O696" s="7"/>
     </row>
-    <row r="697" spans="15:15" ht="12.95">
+    <row r="697" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O697" s="7"/>
     </row>
-    <row r="698" spans="15:15" ht="12.95">
+    <row r="698" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O698" s="7"/>
     </row>
-    <row r="699" spans="15:15" ht="12.95">
+    <row r="699" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O699" s="7"/>
     </row>
-    <row r="700" spans="15:15" ht="12.95">
+    <row r="700" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O700" s="7"/>
     </row>
-    <row r="701" spans="15:15" ht="12.95">
+    <row r="701" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O701" s="7"/>
     </row>
-    <row r="702" spans="15:15" ht="12.95">
+    <row r="702" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O702" s="7"/>
     </row>
-    <row r="703" spans="15:15" ht="12.95">
+    <row r="703" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O703" s="7"/>
     </row>
-    <row r="704" spans="15:15" ht="12.95">
+    <row r="704" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O704" s="7"/>
     </row>
-    <row r="705" spans="15:15" ht="12.95">
+    <row r="705" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O705" s="7"/>
     </row>
-    <row r="706" spans="15:15" ht="12.95">
+    <row r="706" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O706" s="7"/>
     </row>
-    <row r="707" spans="15:15" ht="12.95">
+    <row r="707" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O707" s="7"/>
     </row>
-    <row r="708" spans="15:15" ht="12.95">
+    <row r="708" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O708" s="7"/>
     </row>
-    <row r="709" spans="15:15" ht="12.95">
+    <row r="709" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O709" s="7"/>
     </row>
-    <row r="710" spans="15:15" ht="12.95">
+    <row r="710" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O710" s="7"/>
     </row>
-    <row r="711" spans="15:15" ht="12.95">
+    <row r="711" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O711" s="7"/>
     </row>
-    <row r="712" spans="15:15" ht="12.95">
+    <row r="712" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O712" s="7"/>
     </row>
-    <row r="713" spans="15:15" ht="12.95">
+    <row r="713" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O713" s="7"/>
     </row>
-    <row r="714" spans="15:15" ht="12.95">
+    <row r="714" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O714" s="7"/>
     </row>
-    <row r="715" spans="15:15" ht="12.95">
+    <row r="715" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O715" s="7"/>
     </row>
-    <row r="716" spans="15:15" ht="12.95">
+    <row r="716" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O716" s="7"/>
     </row>
-    <row r="717" spans="15:15" ht="12.95">
+    <row r="717" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O717" s="7"/>
     </row>
-    <row r="718" spans="15:15" ht="12.95">
+    <row r="718" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O718" s="7"/>
     </row>
-    <row r="719" spans="15:15" ht="12.95">
+    <row r="719" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O719" s="7"/>
     </row>
-    <row r="720" spans="15:15" ht="12.95">
+    <row r="720" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O720" s="7"/>
     </row>
-    <row r="721" spans="15:15" ht="12.95">
+    <row r="721" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O721" s="7"/>
     </row>
-    <row r="722" spans="15:15" ht="12.95">
+    <row r="722" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O722" s="7"/>
     </row>
-    <row r="723" spans="15:15" ht="12.95">
+    <row r="723" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O723" s="7"/>
     </row>
-    <row r="724" spans="15:15" ht="12.95">
+    <row r="724" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O724" s="7"/>
     </row>
-    <row r="725" spans="15:15" ht="12.95">
+    <row r="725" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O725" s="7"/>
     </row>
-    <row r="726" spans="15:15" ht="12.95">
+    <row r="726" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O726" s="7"/>
     </row>
-    <row r="727" spans="15:15" ht="12.95">
+    <row r="727" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O727" s="7"/>
     </row>
-    <row r="728" spans="15:15" ht="12.95">
+    <row r="728" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O728" s="7"/>
     </row>
-    <row r="729" spans="15:15" ht="12.95">
+    <row r="729" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O729" s="7"/>
     </row>
-    <row r="730" spans="15:15" ht="12.95">
+    <row r="730" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O730" s="7"/>
     </row>
-    <row r="731" spans="15:15" ht="12.95">
+    <row r="731" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O731" s="7"/>
     </row>
-    <row r="732" spans="15:15" ht="12.95">
+    <row r="732" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O732" s="7"/>
     </row>
-    <row r="733" spans="15:15" ht="12.95">
+    <row r="733" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O733" s="7"/>
     </row>
-    <row r="734" spans="15:15" ht="12.95">
+    <row r="734" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O734" s="7"/>
     </row>
-    <row r="735" spans="15:15" ht="12.95">
+    <row r="735" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O735" s="7"/>
     </row>
-    <row r="736" spans="15:15" ht="12.95">
+    <row r="736" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O736" s="7"/>
     </row>
-    <row r="737" spans="15:15" ht="12.95">
+    <row r="737" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O737" s="7"/>
     </row>
-    <row r="738" spans="15:15" ht="12.95">
+    <row r="738" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O738" s="7"/>
     </row>
-    <row r="739" spans="15:15" ht="12.95">
+    <row r="739" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O739" s="7"/>
     </row>
-    <row r="740" spans="15:15" ht="12.95">
+    <row r="740" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O740" s="7"/>
     </row>
-    <row r="741" spans="15:15" ht="12.95">
+    <row r="741" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O741" s="7"/>
     </row>
-    <row r="742" spans="15:15" ht="12.95">
+    <row r="742" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O742" s="7"/>
     </row>
-    <row r="743" spans="15:15" ht="12.95">
+    <row r="743" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O743" s="7"/>
     </row>
-    <row r="744" spans="15:15" ht="12.95">
+    <row r="744" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O744" s="7"/>
     </row>
-    <row r="745" spans="15:15" ht="12.95">
+    <row r="745" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O745" s="7"/>
     </row>
-    <row r="746" spans="15:15" ht="12.95">
+    <row r="746" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O746" s="7"/>
     </row>
-    <row r="747" spans="15:15" ht="12.95">
+    <row r="747" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O747" s="7"/>
     </row>
-    <row r="748" spans="15:15" ht="12.95">
+    <row r="748" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O748" s="7"/>
     </row>
-    <row r="749" spans="15:15" ht="12.95">
+    <row r="749" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O749" s="7"/>
     </row>
-    <row r="750" spans="15:15" ht="12.95">
+    <row r="750" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O750" s="7"/>
     </row>
-    <row r="751" spans="15:15" ht="12.95">
+    <row r="751" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O751" s="7"/>
     </row>
-    <row r="752" spans="15:15" ht="12.95">
+    <row r="752" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O752" s="7"/>
     </row>
-    <row r="753" spans="15:15" ht="12.95">
+    <row r="753" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O753" s="7"/>
     </row>
-    <row r="754" spans="15:15" ht="12.95">
+    <row r="754" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O754" s="7"/>
     </row>
-    <row r="755" spans="15:15" ht="12.95">
+    <row r="755" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O755" s="7"/>
     </row>
-    <row r="756" spans="15:15" ht="12.95">
+    <row r="756" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O756" s="7"/>
     </row>
-    <row r="757" spans="15:15" ht="12.95">
+    <row r="757" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O757" s="7"/>
     </row>
-    <row r="758" spans="15:15" ht="12.95">
+    <row r="758" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O758" s="7"/>
     </row>
-    <row r="759" spans="15:15" ht="12.95">
+    <row r="759" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O759" s="7"/>
     </row>
-    <row r="760" spans="15:15" ht="12.95">
+    <row r="760" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O760" s="7"/>
     </row>
-    <row r="761" spans="15:15" ht="12.95">
+    <row r="761" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O761" s="7"/>
     </row>
-    <row r="762" spans="15:15" ht="12.95">
+    <row r="762" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O762" s="7"/>
     </row>
-    <row r="763" spans="15:15" ht="12.95">
+    <row r="763" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O763" s="7"/>
     </row>
-    <row r="764" spans="15:15" ht="12.95">
+    <row r="764" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O764" s="7"/>
     </row>
-    <row r="765" spans="15:15" ht="12.95">
+    <row r="765" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O765" s="7"/>
     </row>
-    <row r="766" spans="15:15" ht="12.95">
+    <row r="766" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O766" s="7"/>
     </row>
-    <row r="767" spans="15:15" ht="12.95">
+    <row r="767" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O767" s="7"/>
     </row>
-    <row r="768" spans="15:15" ht="12.95">
+    <row r="768" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O768" s="7"/>
     </row>
-    <row r="769" spans="15:15" ht="12.95">
+    <row r="769" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O769" s="7"/>
     </row>
-    <row r="770" spans="15:15" ht="12.95">
+    <row r="770" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O770" s="7"/>
     </row>
-    <row r="771" spans="15:15" ht="12.95">
+    <row r="771" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O771" s="7"/>
     </row>
-    <row r="772" spans="15:15" ht="12.95">
+    <row r="772" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O772" s="7"/>
     </row>
-    <row r="773" spans="15:15" ht="12.95">
+    <row r="773" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O773" s="7"/>
     </row>
-    <row r="774" spans="15:15" ht="12.95">
+    <row r="774" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O774" s="7"/>
     </row>
-    <row r="775" spans="15:15" ht="12.95">
+    <row r="775" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O775" s="7"/>
     </row>
-    <row r="776" spans="15:15" ht="12.95">
+    <row r="776" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O776" s="7"/>
     </row>
-    <row r="777" spans="15:15" ht="12.95">
+    <row r="777" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O777" s="7"/>
     </row>
-    <row r="778" spans="15:15" ht="12.95">
+    <row r="778" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O778" s="7"/>
     </row>
-    <row r="779" spans="15:15" ht="12.95">
+    <row r="779" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O779" s="7"/>
     </row>
-    <row r="780" spans="15:15" ht="12.95">
+    <row r="780" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O780" s="7"/>
     </row>
-    <row r="781" spans="15:15" ht="12.95">
+    <row r="781" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O781" s="7"/>
     </row>
-    <row r="782" spans="15:15" ht="12.95">
+    <row r="782" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O782" s="7"/>
     </row>
-    <row r="783" spans="15:15" ht="12.95">
+    <row r="783" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O783" s="7"/>
     </row>
-    <row r="784" spans="15:15" ht="12.95">
+    <row r="784" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O784" s="7"/>
     </row>
-    <row r="785" spans="15:15" ht="12.95">
+    <row r="785" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O785" s="7"/>
     </row>
-    <row r="786" spans="15:15" ht="12.95">
+    <row r="786" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O786" s="7"/>
     </row>
-    <row r="787" spans="15:15" ht="12.95">
+    <row r="787" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O787" s="7"/>
     </row>
-    <row r="788" spans="15:15" ht="12.95">
+    <row r="788" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O788" s="7"/>
     </row>
-    <row r="789" spans="15:15" ht="12.95">
+    <row r="789" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O789" s="7"/>
     </row>
-    <row r="790" spans="15:15" ht="12.95">
+    <row r="790" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O790" s="7"/>
     </row>
-    <row r="791" spans="15:15" ht="12.95">
+    <row r="791" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O791" s="7"/>
     </row>
-    <row r="792" spans="15:15" ht="12.95">
+    <row r="792" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O792" s="7"/>
     </row>
-    <row r="793" spans="15:15" ht="12.95">
+    <row r="793" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O793" s="7"/>
     </row>
-    <row r="794" spans="15:15" ht="12.95">
+    <row r="794" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O794" s="7"/>
     </row>
-    <row r="795" spans="15:15" ht="12.95">
+    <row r="795" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O795" s="7"/>
     </row>
-    <row r="796" spans="15:15" ht="12.95">
+    <row r="796" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O796" s="7"/>
     </row>
-    <row r="797" spans="15:15" ht="12.95">
+    <row r="797" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O797" s="7"/>
     </row>
-    <row r="798" spans="15:15" ht="12.95">
+    <row r="798" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O798" s="7"/>
     </row>
-    <row r="799" spans="15:15" ht="12.95">
+    <row r="799" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O799" s="7"/>
     </row>
-    <row r="800" spans="15:15" ht="12.95">
+    <row r="800" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O800" s="7"/>
     </row>
-    <row r="801" spans="15:15" ht="12.95">
+    <row r="801" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O801" s="7"/>
     </row>
-    <row r="802" spans="15:15" ht="12.95">
+    <row r="802" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O802" s="7"/>
     </row>
-    <row r="803" spans="15:15" ht="12.95">
+    <row r="803" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O803" s="7"/>
     </row>
-    <row r="804" spans="15:15" ht="12.95">
+    <row r="804" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O804" s="7"/>
     </row>
-    <row r="805" spans="15:15" ht="12.95">
+    <row r="805" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O805" s="7"/>
     </row>
-    <row r="806" spans="15:15" ht="12.95">
+    <row r="806" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O806" s="7"/>
     </row>
-    <row r="807" spans="15:15" ht="12.95">
+    <row r="807" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O807" s="7"/>
     </row>
-    <row r="808" spans="15:15" ht="12.95">
+    <row r="808" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O808" s="7"/>
     </row>
-    <row r="809" spans="15:15" ht="12.95">
+    <row r="809" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O809" s="7"/>
     </row>
-    <row r="810" spans="15:15" ht="12.95">
+    <row r="810" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O810" s="7"/>
     </row>
-    <row r="811" spans="15:15" ht="12.95">
+    <row r="811" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O811" s="7"/>
     </row>
-    <row r="812" spans="15:15" ht="12.95">
+    <row r="812" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O812" s="7"/>
     </row>
-    <row r="813" spans="15:15" ht="12.95">
+    <row r="813" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O813" s="7"/>
     </row>
-    <row r="814" spans="15:15" ht="12.95">
+    <row r="814" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O814" s="7"/>
     </row>
-    <row r="815" spans="15:15" ht="12.95">
+    <row r="815" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O815" s="7"/>
     </row>
-    <row r="816" spans="15:15" ht="12.95">
+    <row r="816" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O816" s="7"/>
     </row>
-    <row r="817" spans="15:15" ht="12.95">
+    <row r="817" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O817" s="7"/>
     </row>
-    <row r="818" spans="15:15" ht="12.95">
+    <row r="818" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O818" s="7"/>
     </row>
-    <row r="819" spans="15:15" ht="12.95">
+    <row r="819" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O819" s="7"/>
     </row>
-    <row r="820" spans="15:15" ht="12.95">
+    <row r="820" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O820" s="7"/>
     </row>
-    <row r="821" spans="15:15" ht="12.95">
+    <row r="821" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O821" s="7"/>
     </row>
-    <row r="822" spans="15:15" ht="12.95">
+    <row r="822" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O822" s="7"/>
     </row>
-    <row r="823" spans="15:15" ht="12.95">
+    <row r="823" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O823" s="7"/>
     </row>
-    <row r="824" spans="15:15" ht="12.95">
+    <row r="824" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O824" s="7"/>
     </row>
-    <row r="825" spans="15:15" ht="12.95">
+    <row r="825" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O825" s="7"/>
     </row>
-    <row r="826" spans="15:15" ht="12.95">
+    <row r="826" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O826" s="7"/>
     </row>
-    <row r="827" spans="15:15" ht="12.95">
+    <row r="827" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O827" s="7"/>
     </row>
-    <row r="828" spans="15:15" ht="12.95">
+    <row r="828" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O828" s="7"/>
     </row>
-    <row r="829" spans="15:15" ht="12.95">
+    <row r="829" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O829" s="7"/>
     </row>
-    <row r="830" spans="15:15" ht="12.95">
+    <row r="830" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O830" s="7"/>
     </row>
-    <row r="831" spans="15:15" ht="12.95">
+    <row r="831" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O831" s="7"/>
     </row>
-    <row r="832" spans="15:15" ht="12.95">
+    <row r="832" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O832" s="7"/>
     </row>
-    <row r="833" spans="15:15" ht="12.95">
+    <row r="833" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O833" s="7"/>
     </row>
-    <row r="834" spans="15:15" ht="12.95">
+    <row r="834" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O834" s="7"/>
     </row>
-    <row r="835" spans="15:15" ht="12.95">
+    <row r="835" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O835" s="7"/>
     </row>
-    <row r="836" spans="15:15" ht="12.95">
+    <row r="836" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O836" s="7"/>
     </row>
-    <row r="837" spans="15:15" ht="12.95">
+    <row r="837" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O837" s="7"/>
     </row>
-    <row r="838" spans="15:15" ht="12.95">
+    <row r="838" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O838" s="7"/>
     </row>
-    <row r="839" spans="15:15" ht="12.95">
+    <row r="839" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O839" s="7"/>
     </row>
-    <row r="840" spans="15:15" ht="12.95">
+    <row r="840" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O840" s="7"/>
     </row>
-    <row r="841" spans="15:15" ht="12.95">
+    <row r="841" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O841" s="7"/>
     </row>
-    <row r="842" spans="15:15" ht="12.95">
+    <row r="842" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O842" s="7"/>
     </row>
-    <row r="843" spans="15:15" ht="12.95">
+    <row r="843" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O843" s="7"/>
     </row>
-    <row r="844" spans="15:15" ht="12.95">
+    <row r="844" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O844" s="7"/>
     </row>
-    <row r="845" spans="15:15" ht="12.95">
+    <row r="845" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O845" s="7"/>
     </row>
-    <row r="846" spans="15:15" ht="12.95">
+    <row r="846" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O846" s="7"/>
     </row>
-    <row r="847" spans="15:15" ht="12.95">
+    <row r="847" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O847" s="7"/>
     </row>
-    <row r="848" spans="15:15" ht="12.95">
+    <row r="848" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O848" s="7"/>
     </row>
-    <row r="849" spans="15:15" ht="12.95">
+    <row r="849" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O849" s="7"/>
     </row>
-    <row r="850" spans="15:15" ht="12.95">
+    <row r="850" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O850" s="7"/>
     </row>
-    <row r="851" spans="15:15" ht="12.95">
+    <row r="851" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O851" s="7"/>
     </row>
-    <row r="852" spans="15:15" ht="12.95">
+    <row r="852" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O852" s="7"/>
     </row>
-    <row r="853" spans="15:15" ht="12.95">
+    <row r="853" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O853" s="7"/>
     </row>
-    <row r="854" spans="15:15" ht="12.95">
+    <row r="854" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O854" s="7"/>
     </row>
-    <row r="855" spans="15:15" ht="12.95">
+    <row r="855" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O855" s="7"/>
     </row>
-    <row r="856" spans="15:15" ht="12.95">
+    <row r="856" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O856" s="7"/>
     </row>
-    <row r="857" spans="15:15" ht="12.95">
+    <row r="857" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O857" s="7"/>
     </row>
-    <row r="858" spans="15:15" ht="12.95">
+    <row r="858" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O858" s="7"/>
     </row>
-    <row r="859" spans="15:15" ht="12.95">
+    <row r="859" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O859" s="7"/>
     </row>
-    <row r="860" spans="15:15" ht="12.95">
+    <row r="860" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O860" s="7"/>
     </row>
-    <row r="861" spans="15:15" ht="12.95">
+    <row r="861" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O861" s="7"/>
     </row>
-    <row r="862" spans="15:15" ht="12.95">
+    <row r="862" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O862" s="7"/>
     </row>
-    <row r="863" spans="15:15" ht="12.95">
+    <row r="863" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O863" s="7"/>
     </row>
-    <row r="864" spans="15:15" ht="12.95">
+    <row r="864" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O864" s="7"/>
     </row>
-    <row r="865" spans="15:15" ht="12.95">
+    <row r="865" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O865" s="7"/>
     </row>
-    <row r="866" spans="15:15" ht="12.95">
+    <row r="866" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O866" s="7"/>
     </row>
-    <row r="867" spans="15:15" ht="12.95">
+    <row r="867" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O867" s="7"/>
     </row>
-    <row r="868" spans="15:15" ht="12.95">
+    <row r="868" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O868" s="7"/>
     </row>
-    <row r="869" spans="15:15" ht="12.95">
+    <row r="869" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O869" s="7"/>
     </row>
-    <row r="870" spans="15:15" ht="12.95">
+    <row r="870" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O870" s="7"/>
     </row>
-    <row r="871" spans="15:15" ht="12.95">
+    <row r="871" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O871" s="7"/>
     </row>
-    <row r="872" spans="15:15" ht="12.95">
+    <row r="872" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O872" s="7"/>
     </row>
-    <row r="873" spans="15:15" ht="12.95">
+    <row r="873" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O873" s="7"/>
     </row>
-    <row r="874" spans="15:15" ht="12.95">
+    <row r="874" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O874" s="7"/>
     </row>
-    <row r="875" spans="15:15" ht="12.95">
+    <row r="875" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O875" s="7"/>
     </row>
-    <row r="876" spans="15:15" ht="12.95">
+    <row r="876" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O876" s="7"/>
     </row>
-    <row r="877" spans="15:15" ht="12.95">
+    <row r="877" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O877" s="7"/>
     </row>
-    <row r="878" spans="15:15" ht="12.95">
+    <row r="878" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O878" s="7"/>
     </row>
-    <row r="879" spans="15:15" ht="12.95">
+    <row r="879" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O879" s="7"/>
     </row>
-    <row r="880" spans="15:15" ht="12.95">
+    <row r="880" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O880" s="7"/>
     </row>
-    <row r="881" spans="15:15" ht="12.95">
+    <row r="881" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O881" s="7"/>
     </row>
-    <row r="882" spans="15:15" ht="12.95">
+    <row r="882" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O882" s="7"/>
     </row>
-    <row r="883" spans="15:15" ht="12.95">
+    <row r="883" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O883" s="7"/>
     </row>
-    <row r="884" spans="15:15" ht="12.95">
+    <row r="884" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O884" s="7"/>
     </row>
-    <row r="885" spans="15:15" ht="12.95">
+    <row r="885" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O885" s="7"/>
     </row>
-    <row r="886" spans="15:15" ht="12.95">
+    <row r="886" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O886" s="7"/>
     </row>
-    <row r="887" spans="15:15" ht="12.95">
+    <row r="887" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O887" s="7"/>
     </row>
-    <row r="888" spans="15:15" ht="12.95">
+    <row r="888" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O888" s="7"/>
     </row>
-    <row r="889" spans="15:15" ht="12.95">
+    <row r="889" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O889" s="7"/>
     </row>
-    <row r="890" spans="15:15" ht="12.95">
+    <row r="890" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O890" s="7"/>
     </row>
-    <row r="891" spans="15:15" ht="12.95">
+    <row r="891" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O891" s="7"/>
     </row>
-    <row r="892" spans="15:15" ht="12.95">
+    <row r="892" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O892" s="7"/>
     </row>
-    <row r="893" spans="15:15" ht="12.95">
+    <row r="893" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O893" s="7"/>
     </row>
-    <row r="894" spans="15:15" ht="12.95">
+    <row r="894" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O894" s="7"/>
     </row>
-    <row r="895" spans="15:15" ht="12.95">
+    <row r="895" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O895" s="7"/>
     </row>
-    <row r="896" spans="15:15" ht="12.95">
+    <row r="896" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O896" s="7"/>
     </row>
-    <row r="897" spans="15:15" ht="12.95">
+    <row r="897" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O897" s="7"/>
     </row>
-    <row r="898" spans="15:15" ht="12.95">
+    <row r="898" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O898" s="7"/>
     </row>
-    <row r="899" spans="15:15" ht="12.95">
+    <row r="899" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O899" s="7"/>
     </row>
-    <row r="900" spans="15:15" ht="12.95">
+    <row r="900" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O900" s="7"/>
     </row>
-    <row r="901" spans="15:15" ht="12.95">
+    <row r="901" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O901" s="7"/>
     </row>
-    <row r="902" spans="15:15" ht="12.95">
+    <row r="902" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O902" s="7"/>
     </row>
-    <row r="903" spans="15:15" ht="12.95">
+    <row r="903" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O903" s="7"/>
     </row>
-    <row r="904" spans="15:15" ht="12.95">
+    <row r="904" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O904" s="7"/>
     </row>
-    <row r="905" spans="15:15" ht="12.95">
+    <row r="905" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O905" s="7"/>
     </row>
-    <row r="906" spans="15:15" ht="12.95">
+    <row r="906" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O906" s="7"/>
     </row>
-    <row r="907" spans="15:15" ht="12.95">
+    <row r="907" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O907" s="7"/>
     </row>
-    <row r="908" spans="15:15" ht="12.95">
+    <row r="908" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O908" s="7"/>
     </row>
-    <row r="909" spans="15:15" ht="12.95">
+    <row r="909" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O909" s="7"/>
     </row>
-    <row r="910" spans="15:15" ht="12.95">
+    <row r="910" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O910" s="7"/>
     </row>
-    <row r="911" spans="15:15" ht="12.95">
+    <row r="911" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O911" s="7"/>
     </row>
-    <row r="912" spans="15:15" ht="12.95">
+    <row r="912" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O912" s="7"/>
     </row>
-    <row r="913" spans="15:15" ht="12.95">
+    <row r="913" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O913" s="7"/>
     </row>
-    <row r="914" spans="15:15" ht="12.95">
+    <row r="914" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O914" s="7"/>
     </row>
-    <row r="915" spans="15:15" ht="12.95">
+    <row r="915" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O915" s="7"/>
     </row>
-    <row r="916" spans="15:15" ht="12.95">
+    <row r="916" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O916" s="7"/>
     </row>
-    <row r="917" spans="15:15" ht="12.95">
+    <row r="917" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O917" s="7"/>
     </row>
-    <row r="918" spans="15:15" ht="12.95">
+    <row r="918" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O918" s="7"/>
     </row>
-    <row r="919" spans="15:15" ht="12.95">
+    <row r="919" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O919" s="7"/>
     </row>
-    <row r="920" spans="15:15" ht="12.95">
+    <row r="920" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O920" s="7"/>
     </row>
-    <row r="921" spans="15:15" ht="12.95">
+    <row r="921" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O921" s="7"/>
     </row>
-    <row r="922" spans="15:15" ht="12.95">
+    <row r="922" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O922" s="7"/>
     </row>
-    <row r="923" spans="15:15" ht="12.95">
+    <row r="923" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O923" s="7"/>
     </row>
-    <row r="924" spans="15:15" ht="12.95">
+    <row r="924" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O924" s="7"/>
     </row>
-    <row r="925" spans="15:15" ht="12.95">
+    <row r="925" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O925" s="7"/>
     </row>
-    <row r="926" spans="15:15" ht="12.95">
+    <row r="926" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O926" s="7"/>
     </row>
-    <row r="927" spans="15:15" ht="12.95">
+    <row r="927" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O927" s="7"/>
     </row>
-    <row r="928" spans="15:15" ht="12.95">
+    <row r="928" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O928" s="7"/>
     </row>
-    <row r="929" spans="15:15" ht="12.95">
+    <row r="929" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O929" s="7"/>
     </row>
-    <row r="930" spans="15:15" ht="12.95">
+    <row r="930" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O930" s="7"/>
     </row>
-    <row r="931" spans="15:15" ht="12.95">
+    <row r="931" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O931" s="7"/>
     </row>
-    <row r="932" spans="15:15" ht="12.95">
+    <row r="932" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O932" s="7"/>
     </row>
-    <row r="933" spans="15:15" ht="12.95">
+    <row r="933" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O933" s="7"/>
     </row>
-    <row r="934" spans="15:15" ht="12.95">
+    <row r="934" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O934" s="7"/>
     </row>
-    <row r="935" spans="15:15" ht="12.95">
+    <row r="935" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O935" s="7"/>
     </row>
-    <row r="936" spans="15:15" ht="12.95">
+    <row r="936" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O936" s="7"/>
     </row>
-    <row r="937" spans="15:15" ht="12.95">
+    <row r="937" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O937" s="7"/>
     </row>
-    <row r="938" spans="15:15" ht="12.95">
+    <row r="938" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O938" s="7"/>
     </row>
-    <row r="939" spans="15:15" ht="12.95">
+    <row r="939" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O939" s="7"/>
     </row>
-    <row r="940" spans="15:15" ht="12.95">
+    <row r="940" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O940" s="7"/>
     </row>
-    <row r="941" spans="15:15" ht="12.95">
+    <row r="941" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O941" s="7"/>
     </row>
-    <row r="942" spans="15:15" ht="12.95">
+    <row r="942" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O942" s="7"/>
     </row>
-    <row r="943" spans="15:15" ht="12.95">
+    <row r="943" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O943" s="7"/>
     </row>
-    <row r="944" spans="15:15" ht="12.95">
+    <row r="944" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O944" s="7"/>
     </row>
-    <row r="945" spans="15:15" ht="12.95">
+    <row r="945" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O945" s="7"/>
     </row>
-    <row r="946" spans="15:15" ht="12.95">
+    <row r="946" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O946" s="7"/>
     </row>
-    <row r="947" spans="15:15" ht="12.95">
+    <row r="947" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O947" s="7"/>
     </row>
-    <row r="948" spans="15:15" ht="12.95">
+    <row r="948" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O948" s="7"/>
     </row>
-    <row r="949" spans="15:15" ht="12.95">
+    <row r="949" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O949" s="7"/>
     </row>
-    <row r="950" spans="15:15" ht="12.95">
+    <row r="950" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O950" s="7"/>
     </row>
-    <row r="951" spans="15:15" ht="12.95">
+    <row r="951" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O951" s="7"/>
     </row>
-    <row r="952" spans="15:15" ht="12.95">
+    <row r="952" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O952" s="7"/>
     </row>
-    <row r="953" spans="15:15" ht="12.95">
+    <row r="953" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O953" s="7"/>
     </row>
-    <row r="954" spans="15:15" ht="12.95">
+    <row r="954" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O954" s="7"/>
     </row>
-    <row r="955" spans="15:15" ht="12.95">
+    <row r="955" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O955" s="7"/>
     </row>
-    <row r="956" spans="15:15" ht="12.95">
+    <row r="956" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O956" s="7"/>
     </row>
-    <row r="957" spans="15:15" ht="12.95">
+    <row r="957" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O957" s="7"/>
     </row>
-    <row r="958" spans="15:15" ht="12.95">
+    <row r="958" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O958" s="7"/>
     </row>
-    <row r="959" spans="15:15" ht="12.95">
+    <row r="959" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O959" s="7"/>
     </row>
-    <row r="960" spans="15:15" ht="12.95">
+    <row r="960" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O960" s="7"/>
     </row>
-    <row r="961" spans="15:15" ht="12.95">
+    <row r="961" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O961" s="7"/>
     </row>
-    <row r="962" spans="15:15" ht="12.95">
+    <row r="962" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O962" s="7"/>
     </row>
-    <row r="963" spans="15:15" ht="12.95">
+    <row r="963" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O963" s="7"/>
     </row>
-    <row r="964" spans="15:15" ht="12.95">
+    <row r="964" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O964" s="7"/>
     </row>
-    <row r="965" spans="15:15" ht="12.95">
+    <row r="965" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O965" s="7"/>
     </row>
-    <row r="966" spans="15:15" ht="12.95">
+    <row r="966" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O966" s="7"/>
     </row>
-    <row r="967" spans="15:15" ht="12.95">
+    <row r="967" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O967" s="7"/>
     </row>
-    <row r="968" spans="15:15" ht="12.95">
+    <row r="968" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O968" s="7"/>
     </row>
-    <row r="969" spans="15:15" ht="12.95">
+    <row r="969" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O969" s="7"/>
     </row>
-    <row r="970" spans="15:15" ht="12.95">
+    <row r="970" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O970" s="7"/>
     </row>
-    <row r="971" spans="15:15" ht="12.95">
+    <row r="971" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O971" s="7"/>
     </row>
-    <row r="972" spans="15:15" ht="12.95">
+    <row r="972" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O972" s="7"/>
     </row>
-    <row r="973" spans="15:15" ht="12.95">
+    <row r="973" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O973" s="7"/>
     </row>
-    <row r="974" spans="15:15" ht="12.95">
+    <row r="974" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O974" s="7"/>
     </row>
-    <row r="975" spans="15:15" ht="12.95">
+    <row r="975" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O975" s="7"/>
     </row>
-    <row r="976" spans="15:15" ht="12.95">
+    <row r="976" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O976" s="7"/>
     </row>
-    <row r="977" spans="15:15" ht="12.95">
+    <row r="977" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O977" s="7"/>
     </row>
-    <row r="978" spans="15:15" ht="12.95">
+    <row r="978" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O978" s="7"/>
     </row>
-    <row r="979" spans="15:15" ht="12.95">
+    <row r="979" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O979" s="7"/>
     </row>
-    <row r="980" spans="15:15" ht="12.95">
+    <row r="980" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O980" s="7"/>
     </row>
-    <row r="981" spans="15:15" ht="12.95">
+    <row r="981" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O981" s="7"/>
     </row>
-    <row r="982" spans="15:15" ht="12.95">
+    <row r="982" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O982" s="7"/>
     </row>
-    <row r="983" spans="15:15" ht="12.95">
+    <row r="983" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O983" s="7"/>
     </row>
-    <row r="984" spans="15:15" ht="12.95">
+    <row r="984" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O984" s="7"/>
     </row>
-    <row r="985" spans="15:15" ht="12.95">
+    <row r="985" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O985" s="7"/>
     </row>
-    <row r="986" spans="15:15" ht="12.95">
+    <row r="986" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O986" s="7"/>
     </row>
-    <row r="987" spans="15:15" ht="12.95">
+    <row r="987" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O987" s="7"/>
     </row>
-    <row r="988" spans="15:15" ht="12.95">
+    <row r="988" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O988" s="7"/>
     </row>
-    <row r="989" spans="15:15" ht="12.95">
+    <row r="989" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O989" s="7"/>
     </row>
-    <row r="990" spans="15:15" ht="12.95">
+    <row r="990" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O990" s="7"/>
     </row>
-    <row r="991" spans="15:15" ht="12.95">
+    <row r="991" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O991" s="7"/>
     </row>
-    <row r="992" spans="15:15" ht="12.95">
+    <row r="992" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O992" s="7"/>
     </row>
-    <row r="993" spans="15:15" ht="12.95">
+    <row r="993" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O993" s="7"/>
     </row>
-    <row r="994" spans="15:15" ht="12.95">
+    <row r="994" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O994" s="7"/>
     </row>
-    <row r="995" spans="15:15" ht="12.95">
+    <row r="995" spans="15:15" ht="13" x14ac:dyDescent="0.15">
       <c r="O995" s="7"/>
     </row>
   </sheetData>
